--- a/bssids.xlsx
+++ b/bssids.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10908"/>
   </bookViews>
   <sheets>
     <sheet name="bssids" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Thomas Janssen - Bachelor thesis Wi-Fi localization - BSSIDs + signal strength + GPS coordinates</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
+  <si>
+    <t>Thomas Janssen - Bachelor thesis Wi-Fi localization</t>
   </si>
   <si>
     <t>If cell is empty: no match in Wigle database OR daily limit reached!</t>
@@ -51,6 +51,9 @@
     <t>Mean longitude</t>
   </si>
   <si>
+    <t>Distance (km)</t>
+  </si>
+  <si>
     <t>Note</t>
   </si>
   <si>
@@ -144,28 +147,1235 @@
     <t>5c:35:3b:f8:e0:6c</t>
   </si>
   <si>
-    <t>Groenenborgerlaan x Prins Boudewijlaan</t>
-  </si>
-  <si>
-    <t>Distance (km)</t>
+    <t>00:78:9e:6c:fa:fe</t>
+  </si>
+  <si>
+    <t>2 Amerikalei 90</t>
+  </si>
+  <si>
+    <t>02:53:7c:72:81:3f</t>
+  </si>
+  <si>
+    <t>02:78:9e:6c:fa:f0</t>
+  </si>
+  <si>
+    <t>02:78:9e:6c:fa:ff</t>
+  </si>
+  <si>
+    <t>9e:97:26:a0:68:14</t>
+  </si>
+  <si>
+    <t>5e:35:3b:31:ab:eb</t>
+  </si>
+  <si>
+    <t>56:67:31:0f:b5:61</t>
+  </si>
+  <si>
+    <t>06:35:3b:d1:0b:dc</t>
+  </si>
+  <si>
+    <t>92:5c:34:1e:bb:33</t>
+  </si>
+  <si>
+    <t>06:53:7c:72:81:41</t>
+  </si>
+  <si>
+    <t>fa:8f:ca:5c:f0:b2</t>
+  </si>
+  <si>
+    <t>fa:8f:ca:8d:b5:48</t>
+  </si>
+  <si>
+    <t>d8:b6:b7:9d:91:2c</t>
+  </si>
+  <si>
+    <t>54:67:51:0f:b5:61</t>
+  </si>
+  <si>
+    <t>ac:84:c9:65:48:6e</t>
+  </si>
+  <si>
+    <t>66:eb:8c:67:e4:54</t>
+  </si>
+  <si>
+    <t>90:5c:44:1e:bb:33</t>
+  </si>
+  <si>
+    <t>9c:97:26:a0:68:13</t>
+  </si>
+  <si>
+    <t>00:24:13:0a:c9:90</t>
+  </si>
+  <si>
+    <t>3 Italiëlei x Cassiersstraat</t>
+  </si>
+  <si>
+    <t>40:f2:01:8d:31:36</t>
+  </si>
+  <si>
+    <t>00:23:ee:fc:af:7b</t>
+  </si>
+  <si>
+    <t>00:1d:6a:9f:7f:e4</t>
+  </si>
+  <si>
+    <t>5c:35:3b:31:b4:ba</t>
+  </si>
+  <si>
+    <t>c6:ea:1d:5c:81:ae</t>
+  </si>
+  <si>
+    <t>02:78:9e:6a:16:9d</t>
+  </si>
+  <si>
+    <t>42:f2:01:8d:be:80</t>
+  </si>
+  <si>
+    <t>4c:9e:ff:7f:dd:3f</t>
+  </si>
+  <si>
+    <t>5c:35:3b:d1:af:cd</t>
+  </si>
+  <si>
+    <t>de:53:3c:e1:da:07</t>
+  </si>
+  <si>
+    <t>06:35:3b:57:62:76</t>
+  </si>
+  <si>
+    <t>06:53:7c:01:f0:7f</t>
+  </si>
+  <si>
+    <t>06:35:3b:9c:de:c7</t>
+  </si>
+  <si>
+    <t>5e:35:3b:1e:60:dd</t>
+  </si>
+  <si>
+    <t>de:53:3c:e1:5e:ce</t>
+  </si>
+  <si>
+    <t>06:35:3b:ab:e0:8c</t>
+  </si>
+  <si>
+    <t>dc:53:7c:e1:5e:ce</t>
+  </si>
+  <si>
+    <t>00:78:9e:6a:16:9b</t>
+  </si>
+  <si>
+    <t>c6:ea:1d:21:5f:5c</t>
+  </si>
+  <si>
+    <t>06:1d:6a:9f:7f:e4</t>
+  </si>
+  <si>
+    <t>02:35:3b:74:6a:d5</t>
+  </si>
+  <si>
+    <t>02:35:3b:9c:de:c5</t>
+  </si>
+  <si>
+    <t>02:23:ee:cc:03:df</t>
+  </si>
+  <si>
+    <t>c6:9f:db:2f:7c:b5</t>
+  </si>
+  <si>
+    <t>00:27:0c:68:15:90</t>
+  </si>
+  <si>
+    <t>c8:0e:14:0c:cb:a5</t>
+  </si>
+  <si>
+    <t>4e:9e:ff:7f:dc:af</t>
+  </si>
+  <si>
+    <t>5c:35:3b:57:62:73</t>
+  </si>
+  <si>
+    <t>5c:35:3b:ab:e0:89</t>
+  </si>
+  <si>
+    <t>e4:8d:8c:ea:3a:5f</t>
+  </si>
+  <si>
+    <t>dc:53:7c:e1:da:07</t>
+  </si>
+  <si>
+    <t>64:d1:a3:18:51:28</t>
+  </si>
+  <si>
+    <t>96:57:a5:7f:2d:da</t>
+  </si>
+  <si>
+    <t>4 Kinepolis</t>
+  </si>
+  <si>
+    <t>06:35:3b:c0:3a:1a</t>
+  </si>
+  <si>
+    <t>92:5c:34:01:a1:aa</t>
+  </si>
+  <si>
+    <t>56:67:31:85:04:32</t>
+  </si>
+  <si>
+    <t>e8:94:f6:68:9e:f8</t>
+  </si>
+  <si>
+    <t>1c:7e:e5:01:5b:70</t>
+  </si>
+  <si>
+    <t>3c:1e:04:10:b4:78</t>
+  </si>
+  <si>
+    <t>90:6c:ac:37:c4:53</t>
+  </si>
+  <si>
+    <t>5c:35:3b:c0:3a:17</t>
+  </si>
+  <si>
+    <t>a2:6c:ac:37:c4:53</t>
+  </si>
+  <si>
+    <t>90:5c:44:01:a1:aa</t>
+  </si>
+  <si>
+    <t>5c:35:3b:d8:9b:9a</t>
+  </si>
+  <si>
+    <t>02:1d:aa:ee:fc:18</t>
+  </si>
+  <si>
+    <t>58:6d:8f:e1:5b:05</t>
+  </si>
+  <si>
+    <t>14:8f:21:b9:90:9b</t>
+  </si>
+  <si>
+    <t>02:35:3b:47:ea:d6</t>
+  </si>
+  <si>
+    <t>c0:c1:c0:36:9e:b2</t>
+  </si>
+  <si>
+    <t>28:10:7b:ce:5a:d6</t>
+  </si>
+  <si>
+    <t>68:15:90:0d:76:20</t>
+  </si>
+  <si>
+    <t>5 Expo</t>
+  </si>
+  <si>
+    <t>00:12:5f:11:b6:ca</t>
+  </si>
+  <si>
+    <t>20:0c:c8:3b:e1:93</t>
+  </si>
+  <si>
+    <t>00:19:70:43:87:fa</t>
+  </si>
+  <si>
+    <t>02:35:3b:47:8d:f3</t>
+  </si>
+  <si>
+    <t>02:35:3b:58:91:a4</t>
+  </si>
+  <si>
+    <t>02:35:3b:9a:b6:f2</t>
+  </si>
+  <si>
+    <t>02:35:3b:a3:94:42</t>
+  </si>
+  <si>
+    <t>02:53:7c:54:50:81</t>
+  </si>
+  <si>
+    <t>02:53:7c:14:20:1c</t>
+  </si>
+  <si>
+    <t>02:35:3b:b3:fb:bb</t>
+  </si>
+  <si>
+    <t>02:35:3b:9b:60:49</t>
+  </si>
+  <si>
+    <t>02:35:3b:66:92:0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:35:3b:d5:1f:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:53:7c:31:ca:d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:35:3b:63:45:2</t>
+  </si>
+  <si>
+    <t>06:35:3b:47:8d:f5</t>
+  </si>
+  <si>
+    <t>92:5c:34:23:64:67</t>
+  </si>
+  <si>
+    <t>06:35:3b:d5:1f:1d</t>
+  </si>
+  <si>
+    <t>06:53:7c:31:ca:db</t>
+  </si>
+  <si>
+    <t>06:35:3b:9a:b6:f4</t>
+  </si>
+  <si>
+    <t>06:35:3b:58:91:a6</t>
+  </si>
+  <si>
+    <t>06:35:3b:76:6f:e2</t>
+  </si>
+  <si>
+    <t>92:5c:34:00:4f:5e</t>
+  </si>
+  <si>
+    <t>de:53:3c:29:13:dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de:53:3c:b4:5c:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56:67:31:e9:ff:8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:35:3b:66:92:1</t>
+  </si>
+  <si>
+    <t>dc:53:7c:29:13:dd</t>
+  </si>
+  <si>
+    <t>0a:19:70:43:87:fa</t>
+  </si>
+  <si>
+    <t>00:1d:6a:a1:28:ff</t>
+  </si>
+  <si>
+    <t>00:15:e9:10:dd:c1</t>
+  </si>
+  <si>
+    <t>5c:35:3b:66:92:0d</t>
+  </si>
+  <si>
+    <t>06:19:70:43:87:fa</t>
+  </si>
+  <si>
+    <t>52:33:8e:66:82:eb</t>
+  </si>
+  <si>
+    <t>52:33:8e:53:ba:3b</t>
+  </si>
+  <si>
+    <t>42:f2:01:86:7d:2b</t>
+  </si>
+  <si>
+    <t>00:12:5f:11:b6:7e</t>
+  </si>
+  <si>
+    <t>dc:53:7c:5f:ba:1f</t>
+  </si>
+  <si>
+    <t>5c:35:3b:58:91:a3</t>
+  </si>
+  <si>
+    <t>40:f2:01:87:2b:ea</t>
+  </si>
+  <si>
+    <t>c4:ea:1d:5e:b3:f1</t>
+  </si>
+  <si>
+    <t>54:67:51:e9:ff:84</t>
+  </si>
+  <si>
+    <t>5c:35:3b:9b:60:48</t>
+  </si>
+  <si>
+    <t>dc:53:7c:43:98:b5</t>
+  </si>
+  <si>
+    <t>90:5c:44:46:eb:4f</t>
+  </si>
+  <si>
+    <t>d0:03:4b:d5:7b:6e</t>
+  </si>
+  <si>
+    <t>5c:33:8e:53:ba:3b</t>
+  </si>
+  <si>
+    <t>5c:35:3b:c6:95:cd</t>
+  </si>
+  <si>
+    <t>40:f2:01:86:7d:2a</t>
+  </si>
+  <si>
+    <t>54:67:51:cb:eb:e5</t>
+  </si>
+  <si>
+    <t>40:f2:01:81:b7:5a</t>
+  </si>
+  <si>
+    <t>54:67:51:85:19:6e</t>
+  </si>
+  <si>
+    <t>46:d9:e7:49:e2:5f</t>
+  </si>
+  <si>
+    <t>5c:33:8e:66:82:eb</t>
+  </si>
+  <si>
+    <t>94:57:a5:47:aa:e9</t>
+  </si>
+  <si>
+    <t>00:95:69:15:cc:4e</t>
+  </si>
+  <si>
+    <t>38:10:d5:38:79:97</t>
+  </si>
+  <si>
+    <t>5c:35:3b:9a:b6:f1</t>
+  </si>
+  <si>
+    <t>08:96:d7:b9:a8:d5</t>
+  </si>
+  <si>
+    <t>dc:53:7c:dd:f2:30</t>
+  </si>
+  <si>
+    <t>40:f2:01:84:1c:9a</t>
+  </si>
+  <si>
+    <t>6 Markgrave: hof van leysen</t>
+  </si>
+  <si>
+    <t>96:10:3e:9f:ef:d1</t>
+  </si>
+  <si>
+    <t>5c:35:3b:82:a6:c2</t>
+  </si>
+  <si>
+    <t>00:27:22:94:ec:da</t>
+  </si>
+  <si>
+    <t>5c:35:3b:81:7a:e1</t>
+  </si>
+  <si>
+    <t>02:53:7c:a9:5b:c6</t>
+  </si>
+  <si>
+    <t>02:35:3b:81:ba:b4</t>
+  </si>
+  <si>
+    <t>02:53:7c:74:12:4c</t>
+  </si>
+  <si>
+    <t>02:35:3b:81:7a:e2</t>
+  </si>
+  <si>
+    <t>06:35:3b:82:a6:c5</t>
+  </si>
+  <si>
+    <t>06:35:3b:81:ba:b6</t>
+  </si>
+  <si>
+    <t>06:53:7c:74:12:4e</t>
+  </si>
+  <si>
+    <t>94:10:3e:9f:ef:d0</t>
+  </si>
+  <si>
+    <t>54:67:51:84:ed:4e</t>
+  </si>
+  <si>
+    <t>88:dc:96:0f:a5:a2</t>
+  </si>
+  <si>
+    <t>dc:53:7c:74:12:4b</t>
+  </si>
+  <si>
+    <t>5c:35:3b:81:ba:b3</t>
+  </si>
+  <si>
+    <t>c8:d3:a3:51:cd:9c</t>
+  </si>
+  <si>
+    <t>00:23:69:b5:a4:45</t>
+  </si>
+  <si>
+    <t>00:11:50:57:92:e5</t>
+  </si>
+  <si>
+    <t>7 Tussenpunt, Britselei x Mechelsesteenweg</t>
+  </si>
+  <si>
+    <t>02:35:3b:6d:07:15</t>
+  </si>
+  <si>
+    <t>02:53:7c:54:f3:02</t>
+  </si>
+  <si>
+    <t>62:35:3b:0d:21:75</t>
+  </si>
+  <si>
+    <t>00:78:9e:6c:95:66</t>
+  </si>
+  <si>
+    <t>54:67:51:9d:10:e9</t>
+  </si>
+  <si>
+    <t>dc:53:7c:f4:3c:1d</t>
+  </si>
+  <si>
+    <t>02:78:9e:6c:95:67</t>
+  </si>
+  <si>
+    <t>f4:ec:38:ab:2b:b0</t>
+  </si>
+  <si>
+    <t>de:53:3c:e2:52:15</t>
+  </si>
+  <si>
+    <t>de:53:3c:df:14:5d</t>
+  </si>
+  <si>
+    <t>06:35:3b:6d:07:17</t>
+  </si>
+  <si>
+    <t>62:35:3b:0d:21:77</t>
+  </si>
+  <si>
+    <t>92:5c:34:1e:77:1b</t>
+  </si>
+  <si>
+    <t>dc:53:7c:df:14:5d</t>
+  </si>
+  <si>
+    <t>90:5c:44:21:ea:d2</t>
+  </si>
+  <si>
+    <t>5c:35:3b:d7:96:47</t>
+  </si>
+  <si>
+    <t>5c:35:3b:6d:07:14</t>
+  </si>
+  <si>
+    <t>dc:53:7c:33:86:24</t>
+  </si>
+  <si>
+    <t>8 MAGO mechelsesteenweg</t>
+  </si>
+  <si>
+    <t>06:35:3b:86:4d:22</t>
+  </si>
+  <si>
+    <t>06:53:7c:53:99:3a</t>
+  </si>
+  <si>
+    <t>de:53:3c:98:27:26</t>
+  </si>
+  <si>
+    <t>56:67:31:e9:af:b8</t>
+  </si>
+  <si>
+    <t>de:53:3c:d9:4f:09</t>
+  </si>
+  <si>
+    <t>5c:35:3b:d7:f7:bb</t>
+  </si>
+  <si>
+    <t>42:f2:01:8c:d1:10</t>
+  </si>
+  <si>
+    <t>4a:83:c7:0d:e7:98</t>
+  </si>
+  <si>
+    <t>9e:97:26:24:4b:e2</t>
+  </si>
+  <si>
+    <t>40:f2:01:8c:d1:1e</t>
+  </si>
+  <si>
+    <t>02:35:3b:6d:a4:b1</t>
+  </si>
+  <si>
+    <t>02:53:7c:71:07:1c</t>
+  </si>
+  <si>
+    <t>02:35:3b:d7:f7:bc</t>
+  </si>
+  <si>
+    <t>02:53:7c:54:d2:4e</t>
+  </si>
+  <si>
+    <t>dc:53:7c:54:d2:4d</t>
+  </si>
+  <si>
+    <t>48:83:c7:0d:e7:96</t>
+  </si>
+  <si>
+    <t>e0:b9:e5:56:d2:b1</t>
+  </si>
+  <si>
+    <t>00:25:9c:d5:85:b9</t>
+  </si>
+  <si>
+    <t>54:67:51:47:cd:4f</t>
+  </si>
+  <si>
+    <t>9c:1c:12:1e:25:33</t>
+  </si>
+  <si>
+    <t>5c:35:3b:90:be:25</t>
+  </si>
+  <si>
+    <t>68:15:90:15:dd:d0</t>
+  </si>
+  <si>
+    <t>9e:97:26:24:4b:e1</t>
+  </si>
+  <si>
+    <t>9c:1c:12:16:aa:52</t>
+  </si>
+  <si>
+    <t>b4:75:0e:d3:32:ca</t>
+  </si>
+  <si>
+    <t>9 Stadspark midden</t>
+  </si>
+  <si>
+    <t>02:35:3b:b0:99:4a</t>
+  </si>
+  <si>
+    <t>02:53:7c:85:58:65</t>
+  </si>
+  <si>
+    <t>18:64:72:70:43:e2</t>
+  </si>
+  <si>
+    <t>18:64:72:70:2e:f2</t>
+  </si>
+  <si>
+    <t>18:64:72:70:43:e3</t>
+  </si>
+  <si>
+    <t>90:5c:44:01:d9:93</t>
+  </si>
+  <si>
+    <t>54:67:51:e9:b0:df</t>
+  </si>
+  <si>
+    <t>06:53:7c:39:4a:24</t>
+  </si>
+  <si>
+    <t>06:35:3b:5f:8d:aa</t>
+  </si>
+  <si>
+    <t>56:67:31:30:20:74</t>
+  </si>
+  <si>
+    <t>92:5c:34:22:b1:49</t>
+  </si>
+  <si>
+    <t>42:f2:01:7d:66:80</t>
+  </si>
+  <si>
+    <t>68:15:90:0d:b6:90</t>
+  </si>
+  <si>
+    <t>6a:15:90:0d:b6:91</t>
+  </si>
+  <si>
+    <t>5c:35:3b:b0:99:49</t>
+  </si>
+  <si>
+    <t>5c:35:3b:a8:1f:d7</t>
+  </si>
+  <si>
+    <t>1c:b9:c4:03:30:18</t>
+  </si>
+  <si>
+    <t>5c:35:3b:48:41:bb</t>
+  </si>
+  <si>
+    <t>34:31:c4:07:fb:75</t>
+  </si>
+  <si>
+    <t>90:5c:44:22:b1:49</t>
+  </si>
+  <si>
+    <t>54:67:51:30:20:74</t>
+  </si>
+  <si>
+    <t>92:5c:34:1f:4a:1a</t>
+  </si>
+  <si>
+    <t>10 Stadspark zuidelijk punt aan charlottalei</t>
+  </si>
+  <si>
+    <t>06:35:3b:48:e9:f6</t>
+  </si>
+  <si>
+    <t>00:37:b7:6f:06:ee</t>
+  </si>
+  <si>
+    <t>ac:a3:1e:de:cb:41</t>
+  </si>
+  <si>
+    <t>30:91:8f:93:1b:b7</t>
+  </si>
+  <si>
+    <t>00:1e:2a:01:07:70</t>
+  </si>
+  <si>
+    <t>54:67:51:e8:26:c7</t>
+  </si>
+  <si>
+    <t>5c:35:3b:48:e9:f3</t>
+  </si>
+  <si>
+    <t>00:19:70:84:45:46</t>
+  </si>
+  <si>
+    <t>90:5c:44:49:5d:be</t>
+  </si>
+  <si>
+    <t>11 Zurenborg jodenbuurt</t>
+  </si>
+  <si>
+    <t>92:5c:34:49:5d:be</t>
+  </si>
+  <si>
+    <t>06:53:7c:a2:ef:37</t>
+  </si>
+  <si>
+    <t>56:67:31:da:f8:5b</t>
+  </si>
+  <si>
+    <t>06:53:7c:83:ab:6f</t>
+  </si>
+  <si>
+    <t>06:35:3b:5f:96:cc</t>
+  </si>
+  <si>
+    <t>de:53:3c:ed:5d:e5</t>
+  </si>
+  <si>
+    <t>06:53:7c:9c:eb:5a</t>
+  </si>
+  <si>
+    <t>06:35:3b:71:0d:6e</t>
+  </si>
+  <si>
+    <t>06:53:7c:73:2a:c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:53:7c:51:57:d</t>
+  </si>
+  <si>
+    <t>5c:d9:98:e4:ca:86</t>
+  </si>
+  <si>
+    <t>e6:83:99:1e:9e:cd</t>
+  </si>
+  <si>
+    <t>02:53:7c:9c:eb:58</t>
+  </si>
+  <si>
+    <t>02:35:3b:5f:96:ca</t>
+  </si>
+  <si>
+    <t>02:35:3b:71:0d:6c</t>
+  </si>
+  <si>
+    <t>02:53:7c:a2:ef:35</t>
+  </si>
+  <si>
+    <t>02:53:7c:83:ab:6d</t>
+  </si>
+  <si>
+    <t>dc:53:7c:a2:ef:34</t>
+  </si>
+  <si>
+    <t>00:19:70:2e:37:36</t>
+  </si>
+  <si>
+    <t>5c:35:3b:1e:85:ba</t>
+  </si>
+  <si>
+    <t>5c:35:3b:71:0d:6b</t>
+  </si>
+  <si>
+    <t>02:37:b7:60:57:90</t>
+  </si>
+  <si>
+    <t>dc:53:7c:e5:a2:a1</t>
+  </si>
+  <si>
+    <t>dc:53:7c:38:e4:70</t>
+  </si>
+  <si>
+    <t>dc:53:7c:9c:eb:57</t>
+  </si>
+  <si>
+    <t>5c:35:3b:5f:96:c9</t>
+  </si>
+  <si>
+    <t>74:a5:28:fa:92:21</t>
+  </si>
+  <si>
+    <t>02:53:7c:41:cc:7d</t>
+  </si>
+  <si>
+    <t>12 The Jane (werken…)</t>
+  </si>
+  <si>
+    <t>b0:5a:da:22:a8:82</t>
+  </si>
+  <si>
+    <t>04:a1:51:93:2f:60</t>
+  </si>
+  <si>
+    <t>54:67:51:40:92:5e</t>
+  </si>
+  <si>
+    <t>40:f2:01:89:17:52</t>
+  </si>
+  <si>
+    <t>04:a1:51:93:2f:61</t>
+  </si>
+  <si>
+    <t>56:67:31:40:92:5e</t>
+  </si>
+  <si>
+    <t>14:91:82:0c:bb:f0</t>
+  </si>
+  <si>
+    <t>22:c9:d0:aa:bc:36</t>
+  </si>
+  <si>
+    <t>20:c9:d0:aa:bc:36</t>
+  </si>
+  <si>
+    <t>2e:a4:3c:a3:26:b9</t>
+  </si>
+  <si>
+    <t>13 Berchem station</t>
+  </si>
+  <si>
+    <t>06:35:3b:f7:b1:69</t>
+  </si>
+  <si>
+    <t>06:35:3b:d0:00:e0</t>
+  </si>
+  <si>
+    <t>de:53:3c:e1:5b:65</t>
+  </si>
+  <si>
+    <t>5c:35:3b:f7:b1:66</t>
+  </si>
+  <si>
+    <t>42:f2:01:87:fe:73</t>
+  </si>
+  <si>
+    <t>00:25:83:34:3a:e0</t>
+  </si>
+  <si>
+    <t>00:25:83:34:b0:40</t>
+  </si>
+  <si>
+    <t>40:f2:01:87:fe:72</t>
+  </si>
+  <si>
+    <t>28:92:4a:14:7b:b4</t>
+  </si>
+  <si>
+    <t>5c:35:3b:b0:21:7e</t>
+  </si>
+  <si>
+    <t>dc:53:7c:e2:e4:90</t>
+  </si>
+  <si>
+    <t>5c:35:3b:70:c1:c9</t>
+  </si>
+  <si>
+    <t>02:35:3b:f7:b1:67</t>
+  </si>
+  <si>
+    <t>02:35:3b:d0:00:de</t>
+  </si>
+  <si>
+    <t>00:0c:f6:eb:97:e0</t>
+  </si>
+  <si>
+    <t>5c:35:3b:d0:00:dd</t>
+  </si>
+  <si>
+    <t>42:f2:01:87:fe:74</t>
+  </si>
+  <si>
+    <t>bc:76:5e:8b:5c:bf</t>
+  </si>
+  <si>
+    <t>bc:30:7e:74:87:8e</t>
+  </si>
+  <si>
+    <t>02:35:3b:98:96:88</t>
+  </si>
+  <si>
+    <t>14 CC Berchem</t>
+  </si>
+  <si>
+    <t>02:35:3b:73:d9:48</t>
+  </si>
+  <si>
+    <t>02:53:7c:9e:44:49</t>
+  </si>
+  <si>
+    <t>02:35:3b:de:16:cd</t>
+  </si>
+  <si>
+    <t>02:35:3b:f7:eb:51</t>
+  </si>
+  <si>
+    <t>02:35:3b:92:d3:0d</t>
+  </si>
+  <si>
+    <t>02:53:7c:18:5e:57</t>
+  </si>
+  <si>
+    <t>dc:53:7c:e2:50:03</t>
+  </si>
+  <si>
+    <t>5c:35:3b:31:69:5a</t>
+  </si>
+  <si>
+    <t>90:4d:4a:cc:64:6e</t>
+  </si>
+  <si>
+    <t>06:53:7c:9e:44:4b</t>
+  </si>
+  <si>
+    <t>06:35:3b:67:9a:03</t>
+  </si>
+  <si>
+    <t>06:35:3b:de:16:cf</t>
+  </si>
+  <si>
+    <t>92:5c:34:03:4f:d8</t>
+  </si>
+  <si>
+    <t>06:35:3b:98:96:8a</t>
+  </si>
+  <si>
+    <t>06:53:7c:18:5e:59</t>
+  </si>
+  <si>
+    <t>06:35:3b:73:d9:4a</t>
+  </si>
+  <si>
+    <t>92:5c:34:21:1c:f7</t>
+  </si>
+  <si>
+    <t>92:5c:34:1e:e1:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:35:3b:f7:eb:5</t>
+  </si>
+  <si>
+    <t>5c:35:3b:d5:24:37</t>
+  </si>
+  <si>
+    <t>5c:35:3b:de:16:cc</t>
+  </si>
+  <si>
+    <t>c8:3a:35:38:3e:d0</t>
+  </si>
+  <si>
+    <t>c8:0e:14:cb:1f:f2</t>
+  </si>
+  <si>
+    <t>90:5c:44:03:4f:d8</t>
+  </si>
+  <si>
+    <t>dc:53:7c:ed:b7:05</t>
+  </si>
+  <si>
+    <t>30:b5:c2:22:3a:52</t>
+  </si>
+  <si>
+    <t>32:91:8f:69:30:bc</t>
+  </si>
+  <si>
+    <t>c4:ea:1d:e4:5c:c5</t>
+  </si>
+  <si>
+    <t>5c:35:3b:f7:eb:50</t>
+  </si>
+  <si>
+    <t>32:91:8f:a2:ee:18</t>
+  </si>
+  <si>
+    <t>02:37:b7:64:6e:40</t>
+  </si>
+  <si>
+    <t>d0:ae:ec:4a:46:0c</t>
+  </si>
+  <si>
+    <t>5c:35:3b:98:96:87</t>
+  </si>
+  <si>
+    <t>5c:35:3b:92:d3:0c</t>
+  </si>
+  <si>
+    <t>20:0c:c8:47:58:7d</t>
+  </si>
+  <si>
+    <t>dc:53:7c:bc:87:7f</t>
+  </si>
+  <si>
+    <t>de:53:3c:f2:45:cf</t>
+  </si>
+  <si>
+    <t>15 Tussenpunt: lange pastoorstraat 55 (kerk)</t>
+  </si>
+  <si>
+    <t>06:53:7c:43:4d:fd</t>
+  </si>
+  <si>
+    <t>56:67:31:03:1e:35</t>
+  </si>
+  <si>
+    <t>02:53:7c:bd:62:08</t>
+  </si>
+  <si>
+    <t>02:53:7c:43:4d:fb</t>
+  </si>
+  <si>
+    <t>02:35:3b:77:58:e8</t>
+  </si>
+  <si>
+    <t>02:53:7c:45:ca:b5</t>
+  </si>
+  <si>
+    <t>02:35:3b:80:81:5f</t>
+  </si>
+  <si>
+    <t>dc:53:7c:f3:a4:bb</t>
+  </si>
+  <si>
+    <t>d0:ae:ec:3d:15:b8</t>
+  </si>
+  <si>
+    <t>dc:53:7c:43:4d:fa</t>
+  </si>
+  <si>
+    <t>94:57:a5:84:a0:0d</t>
+  </si>
+  <si>
+    <t>00:23:69:2e:5b:a9</t>
+  </si>
+  <si>
+    <t>dc:53:7c:f2:45:cf</t>
+  </si>
+  <si>
+    <t>5c:35:3b:6c:c2:f7</t>
+  </si>
+  <si>
+    <t>5c:35:3b:80:81:5e</t>
+  </si>
+  <si>
+    <t>54:67:51:03:1e:35</t>
+  </si>
+  <si>
+    <t>5c:33:8e:64:d4:f5</t>
+  </si>
+  <si>
+    <t>54:67:51:dc:fc:77</t>
+  </si>
+  <si>
+    <t>f8:d1:11:54:ed:1c</t>
+  </si>
+  <si>
+    <t>56:67:31:02:13:68</t>
+  </si>
+  <si>
+    <t>16 Tussenpunt: delhaize basic fit, Merodelei x Generaal Lemanstraat</t>
+  </si>
+  <si>
+    <t>06:53:7c:41:74:ce</t>
+  </si>
+  <si>
+    <t>06:35:3b:a9:8a:e5</t>
+  </si>
+  <si>
+    <t>92:5c:34:21:da:e9</t>
+  </si>
+  <si>
+    <t>56:67:31:43:fe:86</t>
+  </si>
+  <si>
+    <t>06:53:7c:16:28:2b</t>
+  </si>
+  <si>
+    <t>56:67:31:3f:3c:76</t>
+  </si>
+  <si>
+    <t>56:67:31:40:bd:1a</t>
+  </si>
+  <si>
+    <t>06:53:7c:54:74:16</t>
+  </si>
+  <si>
+    <t>06:19:70:a4:86:69</t>
+  </si>
+  <si>
+    <t>42:c7:29:56:cf:0f</t>
+  </si>
+  <si>
+    <t>00:37:b7:5b:60:56</t>
+  </si>
+  <si>
+    <t>42:c7:29:56:cf:00</t>
+  </si>
+  <si>
+    <t>c6:ea:1d:c1:c0:a6</t>
+  </si>
+  <si>
+    <t>40:c7:29:56:cf:0e</t>
+  </si>
+  <si>
+    <t>dc:53:7c:16:28:28</t>
+  </si>
+  <si>
+    <t>54:67:51:3f:3c:76</t>
+  </si>
+  <si>
+    <t>02:53:7c:16:28:29</t>
+  </si>
+  <si>
+    <t>54:67:51:43:fe:86</t>
+  </si>
+  <si>
+    <t>5c:35:3b:a9:8a:e2</t>
+  </si>
+  <si>
+    <t>00:18:0a:6f:0c:b4</t>
+  </si>
+  <si>
+    <t>00:27:0d:56:d1:70</t>
+  </si>
+  <si>
+    <t>78:d3:8d:cc:f4:ea</t>
+  </si>
+  <si>
+    <t>54:67:51:02:13:68</t>
+  </si>
+  <si>
+    <t>00:19:70:7d:fb:77</t>
+  </si>
+  <si>
+    <t>17 Wezenberg zwembad</t>
+  </si>
+  <si>
+    <t>40:e3:d6:8a:74:21</t>
+  </si>
+  <si>
+    <t>40:e3:d6:8a:7f:c1</t>
+  </si>
+  <si>
+    <t>04:bd:88:6a:15:21</t>
+  </si>
+  <si>
+    <t>06:35:3b:99:e9:a8</t>
+  </si>
+  <si>
+    <t>06:35:3b:75:f9:59</t>
+  </si>
+  <si>
+    <t>06:19:70:7d:fb:77</t>
+  </si>
+  <si>
+    <t>0a:19:70:7d:fb:77</t>
+  </si>
+  <si>
+    <t>02:35:3b:99:e9:a6</t>
+  </si>
+  <si>
+    <t>02:53:7c:53:ec:7b</t>
+  </si>
+  <si>
+    <t>02:35:3b:75:f9:57</t>
+  </si>
+  <si>
+    <t>40:e3:d6:8a:74:22</t>
+  </si>
+  <si>
+    <t>40:e3:d6:8a:7f:c2</t>
+  </si>
+  <si>
+    <t>04:18:d6:9d:23:df</t>
+  </si>
+  <si>
+    <t>5c:35:3b:99:e9:a5</t>
+  </si>
+  <si>
+    <t>04:bd:88:6a:15:20</t>
+  </si>
+  <si>
+    <t>40:e3:d6:8a:7f:c0</t>
+  </si>
+  <si>
+    <t>30:d3:2d:1a:e7:20</t>
+  </si>
+  <si>
+    <t>2c:44:fd:e5:e0:b6</t>
+  </si>
+  <si>
+    <t>f4:06:8d:08:2c:3e</t>
+  </si>
+  <si>
+    <t>88:1f:a1:3b:0b:0c</t>
+  </si>
+  <si>
+    <t>ac:a3:1e:bb:84:20</t>
+  </si>
+  <si>
+    <t>18 Campus Middelheim fietsenstalling</t>
+  </si>
+  <si>
+    <t>c8:e0:eb:2f:75:51</t>
+  </si>
+  <si>
+    <t>ac:a3:1e:bb:84:22</t>
+  </si>
+  <si>
+    <t>78:48:59:46:0d:31</t>
+  </si>
+  <si>
+    <t>78:48:59:46:0d:32</t>
+  </si>
+  <si>
+    <t>78:48:59:46:0d:33</t>
+  </si>
+  <si>
+    <t>1 Groenenborgerlaan x Prins Boudewijnlaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,16 +1401,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -217,24 +1447,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="2" builtinId="15"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,38 +1765,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" customWidth="1"/>
     <col min="10" max="10" width="54.88671875" customWidth="1"/>
     <col min="11" max="13" width="15.77734375" customWidth="1"/>
     <col min="14" max="14" width="20.77734375" customWidth="1"/>
     <col min="15" max="18" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="G1" t="s">
+      <c r="B1" s="6"/>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -553,13 +1808,13 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -568,17 +1823,17 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>53</v>
@@ -586,22 +1841,22 @@
       <c r="C4">
         <v>51.177791999999997</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E4">
         <v>51.177970889999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>4.4243598000000004</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>56</v>
@@ -609,19 +1864,19 @@
       <c r="C5">
         <v>51.177791999999997</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E5">
         <v>51.17781067</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>4.4243974699999997</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>56</v>
@@ -629,19 +1884,19 @@
       <c r="C6">
         <v>51.177791999999997</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E6">
         <v>51.177780149999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>4.4244093900000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -649,13 +1904,13 @@
       <c r="C7">
         <v>51.177791999999997</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>43</v>
@@ -663,13 +1918,13 @@
       <c r="C8">
         <v>51.177791999999997</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -677,19 +1932,19 @@
       <c r="C9">
         <v>51.177791999999997</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E9">
         <v>51.177803040000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>4.4240551000000004</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>51</v>
@@ -697,13 +1952,13 @@
       <c r="C10">
         <v>51.177791999999997</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>68</v>
@@ -711,19 +1966,19 @@
       <c r="C11">
         <v>51.177791999999997</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E11">
         <v>51.177925109999997</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>4.4243779200000004</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>61</v>
@@ -731,19 +1986,19 @@
       <c r="C12">
         <v>51.177791999999997</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E12">
         <v>51.178215029999997</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>4.4243364300000003</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>35</v>
@@ -751,19 +2006,19 @@
       <c r="C13">
         <v>51.177791999999997</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E13">
         <v>51.178981780000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>4.4241561899999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>58</v>
@@ -771,19 +2026,19 @@
       <c r="C14">
         <v>51.177791999999997</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E14">
         <v>51.178050990000003</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>4.42437696</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>58</v>
@@ -791,19 +2046,19 @@
       <c r="C15">
         <v>51.177791999999997</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E15">
         <v>51.178092960000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>4.4243740999999996</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>68</v>
@@ -811,13 +2066,13 @@
       <c r="C16">
         <v>51.177791999999997</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>63</v>
@@ -825,19 +2080,19 @@
       <c r="C17">
         <v>51.177791999999997</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E17">
         <v>51.177696230000002</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>4.42446947</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>68</v>
@@ -845,19 +2100,19 @@
       <c r="C18">
         <v>51.177791999999997</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E18">
         <v>51.177608489999997</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>4.4244337099999997</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>68</v>
@@ -865,19 +2120,19 @@
       <c r="C19">
         <v>51.177791999999997</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E19">
         <v>51.178016659999997</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>4.42438793</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -885,19 +2140,19 @@
       <c r="C20">
         <v>51.177791999999997</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E20">
         <v>51.178318019999999</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>4.4243784000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>56</v>
@@ -905,13 +2160,13 @@
       <c r="C21">
         <v>51.177791999999997</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>48</v>
@@ -919,19 +2174,19 @@
       <c r="C22">
         <v>51.177791999999997</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E22">
         <v>51.1787262</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>4.4242258100000003</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>51</v>
@@ -939,13 +2194,13 @@
       <c r="C23">
         <v>51.177791999999997</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>36</v>
@@ -953,13 +2208,13 @@
       <c r="C24">
         <v>51.177791999999997</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>68</v>
@@ -967,13 +2222,13 @@
       <c r="C25">
         <v>51.177791999999997</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>56</v>
@@ -981,13 +2236,13 @@
       <c r="C26">
         <v>51.177791999999997</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>50</v>
@@ -995,19 +2250,19 @@
       <c r="C27">
         <v>51.177791999999997</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E27">
         <v>51.17802811</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>4.4243574099999998</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>48</v>
@@ -1015,19 +2270,19 @@
       <c r="C28">
         <v>51.177791999999997</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E28">
         <v>51.178134919999998</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>4.4243168800000001</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>40</v>
@@ -1035,19 +2290,19 @@
       <c r="C29">
         <v>51.177791999999997</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E29">
         <v>51.17810059</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>4.4243726700000003</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>55</v>
@@ -1055,13 +2310,13 @@
       <c r="C30">
         <v>51.177791999999997</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>51</v>
@@ -1069,19 +2324,19 @@
       <c r="C31">
         <v>51.177791999999997</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E31">
         <v>51.177730560000001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>4.4239730799999997</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>66</v>
@@ -1089,13 +2344,13 @@
       <c r="C32">
         <v>51.177791999999997</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>4.4241299999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>55</v>
@@ -1103,14 +2358,7119 @@
       <c r="C33">
         <v>51.177791999999997</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>4.4241299999999999</v>
       </c>
       <c r="E33">
         <v>51.178043369999997</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>4.42434978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>51.207003</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E35">
+        <v>51.207328799999999</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4.3976435699999996</v>
+      </c>
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>51.207003</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E36">
+        <v>51.207229609999999</v>
+      </c>
+      <c r="F36" s="2">
+        <v>4.3970484699999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>51.207003</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E37">
+        <v>51.207328799999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4.3972439799999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>51.207003</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E38">
+        <v>51.207324980000003</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4.3976831399999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>51.207003</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E39">
+        <v>51.207317349999997</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4.3973197900000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>51.207003</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E40">
+        <v>51.206935880000003</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4.3962826699999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>68</v>
+      </c>
+      <c r="C41">
+        <v>51.207003</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E41">
+        <v>51.207199099999997</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4.3971896199999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>51.207003</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E42">
+        <v>51.20727539</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4.3973717700000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>80</v>
+      </c>
+      <c r="C43">
+        <v>51.207003</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4.398212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>51.207003</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E44">
+        <v>51.207164759999998</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4.3970718399999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>51.207003</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E45">
+        <v>51.207298280000003</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4.3972353899999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>51.207003</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E46">
+        <v>51.207489010000003</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4.3978128400000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>51.207003</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4.398212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>51.207003</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E48">
+        <v>51.207256319999999</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4.3973717700000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>99</v>
+      </c>
+      <c r="C49">
+        <v>51.207003</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4.398212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>51.207003</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E50">
+        <v>51.207233430000002</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4.397017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>78</v>
+      </c>
+      <c r="C51">
+        <v>51.207003</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.398212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>51.207003</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4.398212</v>
+      </c>
+      <c r="E52">
+        <v>51.207317349999997</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4.3973197900000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>38</v>
+      </c>
+      <c r="C54">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E54">
+        <v>51.223098749999998</v>
+      </c>
+      <c r="F54" s="2">
+        <v>4.4158139199999997</v>
+      </c>
+      <c r="J54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E55">
+        <v>51.222862239999998</v>
+      </c>
+      <c r="F55" s="2">
+        <v>4.41594219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E56">
+        <v>51.223014829999997</v>
+      </c>
+      <c r="F56" s="2">
+        <v>4.4158363300000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>41</v>
+      </c>
+      <c r="C57">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E57">
+        <v>51.223327640000001</v>
+      </c>
+      <c r="F57" s="2">
+        <v>4.4157667199999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E58">
+        <v>51.223083500000001</v>
+      </c>
+      <c r="F58" s="2">
+        <v>4.4158792499999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4.414803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E60">
+        <v>51.222869869999997</v>
+      </c>
+      <c r="F60" s="2">
+        <v>4.41602373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>31</v>
+      </c>
+      <c r="C61">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4.414803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D62" s="2">
+        <v>4.414803</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D63" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E63">
+        <v>51.223186490000003</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4.4159064299999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E64">
+        <v>51.222854609999999</v>
+      </c>
+      <c r="F64" s="2">
+        <v>4.4158716199999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E65">
+        <v>51.223289489999999</v>
+      </c>
+      <c r="F65" s="2">
+        <v>4.4156823200000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E66">
+        <v>51.223133089999997</v>
+      </c>
+      <c r="F66" s="2">
+        <v>4.4158253700000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E67">
+        <v>51.222965240000001</v>
+      </c>
+      <c r="F67" s="2">
+        <v>4.4159102399999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E68">
+        <v>51.222877500000003</v>
+      </c>
+      <c r="F68" s="2">
+        <v>4.4159412400000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>45</v>
+      </c>
+      <c r="C69">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E69">
+        <v>51.221900939999998</v>
+      </c>
+      <c r="F69" s="2">
+        <v>4.4170646700000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>46</v>
+      </c>
+      <c r="C70">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E70">
+        <v>51.223300930000001</v>
+      </c>
+      <c r="F70" s="2">
+        <v>4.4157133100000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>51</v>
+      </c>
+      <c r="C71">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4.414803</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E72">
+        <v>51.223121640000002</v>
+      </c>
+      <c r="F72" s="2">
+        <v>4.4156975699999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>38</v>
+      </c>
+      <c r="C73">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D73" s="2">
+        <v>4.414803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E74">
+        <v>51.223316189999998</v>
+      </c>
+      <c r="F74" s="2">
+        <v>4.4157438300000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>38</v>
+      </c>
+      <c r="C75">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E75">
+        <v>51.223052979999999</v>
+      </c>
+      <c r="F75" s="2">
+        <v>4.4158635100000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+      <c r="C76">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D76" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E76">
+        <v>51.22326279</v>
+      </c>
+      <c r="F76" s="2">
+        <v>4.4157128300000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77">
+        <v>31</v>
+      </c>
+      <c r="C77">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E77">
+        <v>51.222980499999998</v>
+      </c>
+      <c r="F77" s="2">
+        <v>4.41587687</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78">
+        <v>48</v>
+      </c>
+      <c r="C78">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4.414803</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79">
+        <v>41</v>
+      </c>
+      <c r="C79">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D79" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E79">
+        <v>51.223205569999998</v>
+      </c>
+      <c r="F79" s="2">
+        <v>4.4158177399999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80">
+        <v>36</v>
+      </c>
+      <c r="C80">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E80">
+        <v>51.223258970000003</v>
+      </c>
+      <c r="F80" s="2">
+        <v>4.4158425299999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81">
+        <v>26</v>
+      </c>
+      <c r="C81">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E81">
+        <v>51.22263718</v>
+      </c>
+      <c r="F81" s="2">
+        <v>4.4160094299999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82">
+        <v>48</v>
+      </c>
+      <c r="C82">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E82">
+        <v>51.222965240000001</v>
+      </c>
+      <c r="F82" s="2">
+        <v>4.4158515899999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83">
+        <v>55</v>
+      </c>
+      <c r="C83">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E83">
+        <v>51.223468779999997</v>
+      </c>
+      <c r="F83" s="2">
+        <v>4.4155983900000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E84">
+        <v>51.221878050000001</v>
+      </c>
+      <c r="F84" s="2">
+        <v>4.4168453200000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85">
+        <v>45</v>
+      </c>
+      <c r="C85">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E85">
+        <v>51.222587590000003</v>
+      </c>
+      <c r="F85" s="2">
+        <v>4.41608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86">
+        <v>40</v>
+      </c>
+      <c r="C86">
+        <v>51.225822000000001</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4.414803</v>
+      </c>
+      <c r="E86">
+        <v>51.222621920000002</v>
+      </c>
+      <c r="F86" s="2">
+        <v>4.4159722300000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88">
+        <v>28</v>
+      </c>
+      <c r="C88">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D88" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="J88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89">
+        <v>46</v>
+      </c>
+      <c r="C89">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D89" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E89">
+        <v>51.244243619999999</v>
+      </c>
+      <c r="F89" s="2">
+        <v>4.4194931999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90">
+        <v>38</v>
+      </c>
+      <c r="C90">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D91" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E91">
+        <v>51.245391849999997</v>
+      </c>
+      <c r="F91" s="2">
+        <v>4.4261445999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92">
+        <v>60</v>
+      </c>
+      <c r="C92">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E92">
+        <v>51.243396760000003</v>
+      </c>
+      <c r="F92" s="2">
+        <v>4.4203724900000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93">
+        <v>36</v>
+      </c>
+      <c r="C93">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D93" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E93">
+        <v>51.243938450000002</v>
+      </c>
+      <c r="F93" s="2">
+        <v>4.4201488500000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94">
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E94">
+        <v>51.245201109999996</v>
+      </c>
+      <c r="F94" s="2">
+        <v>4.4183764500000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95">
+        <v>33</v>
+      </c>
+      <c r="C95">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D95" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E95">
+        <v>51.244369509999999</v>
+      </c>
+      <c r="F95" s="2">
+        <v>4.4188427900000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96">
+        <v>43</v>
+      </c>
+      <c r="C96">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D96" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E96">
+        <v>51.244148250000002</v>
+      </c>
+      <c r="F96" s="2">
+        <v>4.4195318200000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97">
+        <v>41</v>
+      </c>
+      <c r="C97">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D97" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E97">
+        <v>51.243549350000002</v>
+      </c>
+      <c r="F97" s="2">
+        <v>4.4202465999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98">
+        <v>40</v>
+      </c>
+      <c r="C98">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D98" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99">
+        <v>36</v>
+      </c>
+      <c r="C99">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D99" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E99">
+        <v>51.24503326</v>
+      </c>
+      <c r="F99" s="2">
+        <v>4.4185199700000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100">
+        <v>38</v>
+      </c>
+      <c r="C100">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D100" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E100">
+        <v>51.244030000000002</v>
+      </c>
+      <c r="F100" s="2">
+        <v>4.41972685</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D101" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E101">
+        <v>51.243694310000002</v>
+      </c>
+      <c r="F101" s="2">
+        <v>4.4202308700000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102">
+        <v>41</v>
+      </c>
+      <c r="C102">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D102" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D103" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E103">
+        <v>51.24520493</v>
+      </c>
+      <c r="F103" s="2">
+        <v>4.4192175899999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104">
+        <v>43</v>
+      </c>
+      <c r="C104">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D104" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E104">
+        <v>51.244682310000002</v>
+      </c>
+      <c r="F104" s="2">
+        <v>4.4202842699999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>51.244373000000003</v>
+      </c>
+      <c r="D105" s="2">
+        <v>4.4203520000000003</v>
+      </c>
+      <c r="E105">
+        <v>51.244476319999997</v>
+      </c>
+      <c r="F105" s="2">
+        <v>4.4192814800000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107">
+        <v>60</v>
+      </c>
+      <c r="C107">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D107" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E107">
+        <v>51.193183900000001</v>
+      </c>
+      <c r="F107" s="2">
+        <v>4.3994655600000003</v>
+      </c>
+      <c r="J107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108">
+        <v>63</v>
+      </c>
+      <c r="C108">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D108" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109">
+        <v>56</v>
+      </c>
+      <c r="C109">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D109" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E109">
+        <v>51.194030759999997</v>
+      </c>
+      <c r="F109" s="2">
+        <v>4.3978252400000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110">
+        <v>56</v>
+      </c>
+      <c r="C110">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E110">
+        <v>51.19330978</v>
+      </c>
+      <c r="F110" s="2">
+        <v>4.3987922700000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111">
+        <v>55</v>
+      </c>
+      <c r="C111">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D111" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E111">
+        <v>51.192474369999999</v>
+      </c>
+      <c r="F111" s="2">
+        <v>4.39942455</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112">
+        <v>76</v>
+      </c>
+      <c r="C112">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E112">
+        <v>51.191699980000003</v>
+      </c>
+      <c r="F112" s="2">
+        <v>4.3989777600000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113">
+        <v>58</v>
+      </c>
+      <c r="C113">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D113" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E113">
+        <v>51.193668369999997</v>
+      </c>
+      <c r="F113" s="2">
+        <v>4.3979878399999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114">
+        <v>56</v>
+      </c>
+      <c r="C114">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D114" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E114">
+        <v>51.193393710000002</v>
+      </c>
+      <c r="F114" s="2">
+        <v>4.39944267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+      <c r="C115">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D115" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116">
+        <v>45</v>
+      </c>
+      <c r="C116">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D116" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117">
+        <v>46</v>
+      </c>
+      <c r="C117">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D117" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E117">
+        <v>51.193561549999998</v>
+      </c>
+      <c r="F117" s="2">
+        <v>4.3988680799999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118">
+        <v>65</v>
+      </c>
+      <c r="C118">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D118" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E118">
+        <v>51.19348145</v>
+      </c>
+      <c r="F118" s="2">
+        <v>4.3982687</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119">
+        <v>63</v>
+      </c>
+      <c r="C119">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D119" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E119">
+        <v>51.1918869</v>
+      </c>
+      <c r="F119" s="2">
+        <v>4.3993377699999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D120" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D121" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D122" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123">
+        <v>58</v>
+      </c>
+      <c r="C123">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D123" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E123">
+        <v>51.19372559</v>
+      </c>
+      <c r="F123" s="2">
+        <v>4.3984794599999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124">
+        <v>65</v>
+      </c>
+      <c r="C124">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D124" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125">
+        <v>53</v>
+      </c>
+      <c r="C125">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D125" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E125">
+        <v>51.193679809999999</v>
+      </c>
+      <c r="F125" s="2">
+        <v>4.3985600500000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126">
+        <v>71</v>
+      </c>
+      <c r="C126">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D126" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E126">
+        <v>51.193634029999998</v>
+      </c>
+      <c r="F126" s="2">
+        <v>4.3984398799999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127">
+        <v>60</v>
+      </c>
+      <c r="C127">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D127" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E127">
+        <v>51.193946840000002</v>
+      </c>
+      <c r="F127" s="2">
+        <v>4.3972949999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128">
+        <v>70</v>
+      </c>
+      <c r="C128">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D128" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E128">
+        <v>51.193271639999999</v>
+      </c>
+      <c r="F128" s="2">
+        <v>4.3989534399999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129">
+        <v>63</v>
+      </c>
+      <c r="C129">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D129" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E129">
+        <v>51.193561549999998</v>
+      </c>
+      <c r="F129" s="2">
+        <v>4.3988680799999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130">
+        <v>40</v>
+      </c>
+      <c r="C130">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D130" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131">
+        <v>61</v>
+      </c>
+      <c r="C131">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D131" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D132" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D133" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D134" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135">
+        <v>60</v>
+      </c>
+      <c r="C135">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D135" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136">
+        <v>65</v>
+      </c>
+      <c r="C136">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D136" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E136">
+        <v>51.193775180000003</v>
+      </c>
+      <c r="F136" s="2">
+        <v>4.3980297999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137">
+        <v>28</v>
+      </c>
+      <c r="C137">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D137" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E137">
+        <v>49.593036650000002</v>
+      </c>
+      <c r="F137" s="2">
+        <v>5.8165683699999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138">
+        <v>51</v>
+      </c>
+      <c r="C138">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D138" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E138">
+        <v>51.160034179999997</v>
+      </c>
+      <c r="F138" s="2">
+        <v>4.4444665900000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139">
+        <v>68</v>
+      </c>
+      <c r="C139">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D139" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E139">
+        <v>51.191902159999998</v>
+      </c>
+      <c r="F139" s="2">
+        <v>4.3992333400000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140">
+        <v>65</v>
+      </c>
+      <c r="C140">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D140" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E140">
+        <v>51.193553919999999</v>
+      </c>
+      <c r="F140" s="2">
+        <v>4.3986430199999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141">
+        <v>40</v>
+      </c>
+      <c r="C141">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D141" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E141">
+        <v>51.193058010000001</v>
+      </c>
+      <c r="F141" s="2">
+        <v>4.4002857200000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142">
+        <v>46</v>
+      </c>
+      <c r="C142">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D142" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143">
+        <v>55</v>
+      </c>
+      <c r="C143">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D143" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E143">
+        <v>51.193954470000001</v>
+      </c>
+      <c r="F143" s="2">
+        <v>4.3978433600000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144">
+        <v>43</v>
+      </c>
+      <c r="C144">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D144" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145">
+        <v>66</v>
+      </c>
+      <c r="C145">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D145" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E145">
+        <v>51.193679809999999</v>
+      </c>
+      <c r="F145" s="2">
+        <v>4.3985600500000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146">
+        <v>76</v>
+      </c>
+      <c r="C146">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D146" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E146">
+        <v>51.192195890000001</v>
+      </c>
+      <c r="F146" s="2">
+        <v>4.3986358599999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147">
+        <v>51</v>
+      </c>
+      <c r="C147">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D147" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E147">
+        <v>51.193630220000003</v>
+      </c>
+      <c r="F147" s="2">
+        <v>4.3987698599999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148">
+        <v>46</v>
+      </c>
+      <c r="C148">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D148" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E148">
+        <v>51.193447110000001</v>
+      </c>
+      <c r="F148" s="2">
+        <v>4.3991799399999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149">
+        <v>56</v>
+      </c>
+      <c r="C149">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D149" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150">
+        <v>68</v>
+      </c>
+      <c r="C150">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D150" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E150">
+        <v>51.193183900000001</v>
+      </c>
+      <c r="F150" s="2">
+        <v>4.3987512600000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="C151">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D151" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152">
+        <v>71</v>
+      </c>
+      <c r="C152">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D152" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153">
+        <v>63</v>
+      </c>
+      <c r="C153">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D153" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154">
+        <v>55</v>
+      </c>
+      <c r="C154">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D154" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E154">
+        <v>51.191486359999999</v>
+      </c>
+      <c r="F154" s="2">
+        <v>4.3981738100000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155">
+        <v>55</v>
+      </c>
+      <c r="C155">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D155" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E155">
+        <v>51.193386080000003</v>
+      </c>
+      <c r="F155" s="2">
+        <v>4.3991146099999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156">
+        <v>50</v>
+      </c>
+      <c r="C156">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D156" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E156">
+        <v>51.1939621</v>
+      </c>
+      <c r="F156" s="2">
+        <v>4.3977522899999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157">
+        <v>46</v>
+      </c>
+      <c r="C157">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D157" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158">
+        <v>60</v>
+      </c>
+      <c r="C158">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D158" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159">
+        <v>48</v>
+      </c>
+      <c r="C159">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D159" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E159">
+        <v>51.194263460000002</v>
+      </c>
+      <c r="F159" s="2">
+        <v>4.3969054200000004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160">
+        <v>60</v>
+      </c>
+      <c r="C160">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D160" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161">
+        <v>38</v>
+      </c>
+      <c r="C161">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D161" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E161">
+        <v>51.192882539999999</v>
+      </c>
+      <c r="F161" s="2">
+        <v>4.4016590100000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162">
+        <v>43</v>
+      </c>
+      <c r="C162">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D162" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163">
+        <v>65</v>
+      </c>
+      <c r="C163">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D163" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164">
+        <v>45</v>
+      </c>
+      <c r="C164">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D164" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165">
+        <v>60</v>
+      </c>
+      <c r="C165">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D165" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E165">
+        <v>51.194114689999999</v>
+      </c>
+      <c r="F165" s="2">
+        <v>4.3970589599999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166">
+        <v>38</v>
+      </c>
+      <c r="C166">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D166" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167">
+        <v>45</v>
+      </c>
+      <c r="C167">
+        <v>51.191965000000003</v>
+      </c>
+      <c r="D167" s="2">
+        <v>4.3976860000000002</v>
+      </c>
+      <c r="E167">
+        <v>51.193447110000001</v>
+      </c>
+      <c r="F167" s="2">
+        <v>4.3991799399999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169">
+        <v>51</v>
+      </c>
+      <c r="C169">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D169" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+      <c r="J169" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170">
+        <v>56</v>
+      </c>
+      <c r="C170">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D170" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171">
+        <v>50</v>
+      </c>
+      <c r="C171">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D171" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172">
+        <v>46</v>
+      </c>
+      <c r="C172">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D172" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+      <c r="E172">
+        <v>51.19892883</v>
+      </c>
+      <c r="F172" s="2">
+        <v>4.4041013700000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173">
+        <v>63</v>
+      </c>
+      <c r="C173">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D173" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+      <c r="E173">
+        <v>51.198703770000002</v>
+      </c>
+      <c r="F173" s="2">
+        <v>4.4029169100000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174">
+        <v>38</v>
+      </c>
+      <c r="C174">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D174" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175">
+        <v>46</v>
+      </c>
+      <c r="C175">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D175" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176">
+        <v>55</v>
+      </c>
+      <c r="C176">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D176" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177">
+        <v>58</v>
+      </c>
+      <c r="C177">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D177" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+      <c r="E177">
+        <v>51.198600769999999</v>
+      </c>
+      <c r="F177" s="2">
+        <v>4.4031243299999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178">
+        <v>51</v>
+      </c>
+      <c r="C178">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D178" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179">
+        <v>45</v>
+      </c>
+      <c r="C179">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D179" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180">
+        <v>51</v>
+      </c>
+      <c r="C180">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D180" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181">
+        <v>56</v>
+      </c>
+      <c r="C181">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D181" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182">
+        <v>61</v>
+      </c>
+      <c r="C182">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D182" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183">
+        <v>41</v>
+      </c>
+      <c r="C183">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D183" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>192</v>
+      </c>
+      <c r="B184">
+        <v>56</v>
+      </c>
+      <c r="C184">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D184" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185">
+        <v>48</v>
+      </c>
+      <c r="C185">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D185" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>194</v>
+      </c>
+      <c r="B186">
+        <v>61</v>
+      </c>
+      <c r="C186">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D186" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+      <c r="E186">
+        <v>51.198780059999997</v>
+      </c>
+      <c r="F186" s="2">
+        <v>4.4027543099999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>195</v>
+      </c>
+      <c r="B187">
+        <v>61</v>
+      </c>
+      <c r="C187">
+        <v>51.198571000000001</v>
+      </c>
+      <c r="D187" s="2">
+        <v>4.4022690000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189">
+        <v>41</v>
+      </c>
+      <c r="C189">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D189" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E189">
+        <v>51.210632320000002</v>
+      </c>
+      <c r="F189" s="2">
+        <v>4.4070200899999996</v>
+      </c>
+      <c r="J189" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>198</v>
+      </c>
+      <c r="B190">
+        <v>55</v>
+      </c>
+      <c r="C190">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D190" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E190">
+        <v>51.210334779999997</v>
+      </c>
+      <c r="F190" s="2">
+        <v>4.4063525200000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>199</v>
+      </c>
+      <c r="B191">
+        <v>65</v>
+      </c>
+      <c r="C191">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D191" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E191">
+        <v>51.211109159999999</v>
+      </c>
+      <c r="F191" s="2">
+        <v>4.4077477500000004</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192">
+        <v>48</v>
+      </c>
+      <c r="C192">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D192" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E192">
+        <v>51.210998539999999</v>
+      </c>
+      <c r="F192" s="2">
+        <v>4.40750742</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>201</v>
+      </c>
+      <c r="B193">
+        <v>61</v>
+      </c>
+      <c r="C193">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D193" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>202</v>
+      </c>
+      <c r="B194">
+        <v>53</v>
+      </c>
+      <c r="C194">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D194" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E194">
+        <v>51.210487370000003</v>
+      </c>
+      <c r="F194" s="2">
+        <v>4.40701199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>203</v>
+      </c>
+      <c r="B195">
+        <v>60</v>
+      </c>
+      <c r="C195">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D195" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E195">
+        <v>51.210437769999999</v>
+      </c>
+      <c r="F195" s="2">
+        <v>4.40725327</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196">
+        <v>48</v>
+      </c>
+      <c r="C196">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D196" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>205</v>
+      </c>
+      <c r="B197">
+        <v>51</v>
+      </c>
+      <c r="C197">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D197" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E197">
+        <v>51.210624690000003</v>
+      </c>
+      <c r="F197" s="2">
+        <v>4.40720081</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>206</v>
+      </c>
+      <c r="B198">
+        <v>50</v>
+      </c>
+      <c r="C198">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D198" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E198">
+        <v>51.210380549999996</v>
+      </c>
+      <c r="F198" s="2">
+        <v>4.4066848800000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199">
+        <v>66</v>
+      </c>
+      <c r="C199">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D199" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E199">
+        <v>51.210708619999998</v>
+      </c>
+      <c r="F199" s="2">
+        <v>4.4068779899999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>208</v>
+      </c>
+      <c r="B200">
+        <v>55</v>
+      </c>
+      <c r="C200">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D200" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E200">
+        <v>51.210247039999999</v>
+      </c>
+      <c r="F200" s="2">
+        <v>4.4063930500000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>209</v>
+      </c>
+      <c r="B201">
+        <v>51</v>
+      </c>
+      <c r="C201">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D201" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E201">
+        <v>51.21120071</v>
+      </c>
+      <c r="F201" s="2">
+        <v>4.4076547599999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>210</v>
+      </c>
+      <c r="B202">
+        <v>38</v>
+      </c>
+      <c r="C202">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D202" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E202">
+        <v>51.210861209999997</v>
+      </c>
+      <c r="F202" s="2">
+        <v>4.4072685199999997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>211</v>
+      </c>
+      <c r="B203">
+        <v>68</v>
+      </c>
+      <c r="C203">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D203" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E203">
+        <v>51.210666660000001</v>
+      </c>
+      <c r="F203" s="2">
+        <v>4.4068408000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>212</v>
+      </c>
+      <c r="B204">
+        <v>50</v>
+      </c>
+      <c r="C204">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D204" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>213</v>
+      </c>
+      <c r="B205">
+        <v>53</v>
+      </c>
+      <c r="C205">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D205" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>214</v>
+      </c>
+      <c r="B206">
+        <v>50</v>
+      </c>
+      <c r="C206">
+        <v>51.210397999999998</v>
+      </c>
+      <c r="D206" s="2">
+        <v>4.4071009999999999</v>
+      </c>
+      <c r="E206">
+        <v>51.210380549999996</v>
+      </c>
+      <c r="F206" s="2">
+        <v>4.4063568100000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>215</v>
+      </c>
+      <c r="B208">
+        <v>56</v>
+      </c>
+      <c r="C208">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D208" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="J208" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>217</v>
+      </c>
+      <c r="B209">
+        <v>60</v>
+      </c>
+      <c r="C209">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D209" s="2">
+        <v>4.409808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210">
+        <v>63</v>
+      </c>
+      <c r="C210">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D210" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E210">
+        <v>51.207160950000002</v>
+      </c>
+      <c r="F210" s="2">
+        <v>4.4095234899999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>219</v>
+      </c>
+      <c r="B211">
+        <v>60</v>
+      </c>
+      <c r="C211">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D211" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E211">
+        <v>51.206645969999997</v>
+      </c>
+      <c r="F211" s="2">
+        <v>4.4097595199999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>220</v>
+      </c>
+      <c r="B212">
+        <v>56</v>
+      </c>
+      <c r="C212">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D212" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E212">
+        <v>51.206108090000001</v>
+      </c>
+      <c r="F212" s="2">
+        <v>4.4100584999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>221</v>
+      </c>
+      <c r="B213">
+        <v>50</v>
+      </c>
+      <c r="C213">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D213" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E213">
+        <v>51.206707000000002</v>
+      </c>
+      <c r="F213" s="2">
+        <v>4.4097023000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>222</v>
+      </c>
+      <c r="B214">
+        <v>55</v>
+      </c>
+      <c r="C214">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D214" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E214">
+        <v>51.206603999999999</v>
+      </c>
+      <c r="F214" s="2">
+        <v>4.4098372499999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>223</v>
+      </c>
+      <c r="B215">
+        <v>35</v>
+      </c>
+      <c r="C215">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D215" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E215">
+        <v>51.205421450000003</v>
+      </c>
+      <c r="F215" s="2">
+        <v>4.4102706899999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>224</v>
+      </c>
+      <c r="B216">
+        <v>35</v>
+      </c>
+      <c r="C216">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D216" s="2">
+        <v>4.409808</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>225</v>
+      </c>
+      <c r="B217">
+        <v>48</v>
+      </c>
+      <c r="C217">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D217" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E217">
+        <v>39.753520969999997</v>
+      </c>
+      <c r="F217" s="2">
+        <v>-8.8108205799999997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>226</v>
+      </c>
+      <c r="B218">
+        <v>31</v>
+      </c>
+      <c r="C218">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D218" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E218">
+        <v>51.2057991</v>
+      </c>
+      <c r="F218" s="2">
+        <v>4.4101548199999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>227</v>
+      </c>
+      <c r="B219">
+        <v>28</v>
+      </c>
+      <c r="C219">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D219" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E219">
+        <v>51.205532069999997</v>
+      </c>
+      <c r="F219" s="2">
+        <v>4.41032505</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>228</v>
+      </c>
+      <c r="B220">
+        <v>46</v>
+      </c>
+      <c r="C220">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D220" s="2">
+        <v>4.409808</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>229</v>
+      </c>
+      <c r="B221">
+        <v>58</v>
+      </c>
+      <c r="C221">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D221" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E221">
+        <v>51.207172389999997</v>
+      </c>
+      <c r="F221" s="2">
+        <v>4.4094810500000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>230</v>
+      </c>
+      <c r="B222">
+        <v>53</v>
+      </c>
+      <c r="C222">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D222" s="2">
+        <v>4.409808</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>231</v>
+      </c>
+      <c r="B223">
+        <v>51</v>
+      </c>
+      <c r="C223">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D223" s="2">
+        <v>4.409808</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>232</v>
+      </c>
+      <c r="B224">
+        <v>48</v>
+      </c>
+      <c r="C224">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D224" s="2">
+        <v>4.409808</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>233</v>
+      </c>
+      <c r="B225">
+        <v>65</v>
+      </c>
+      <c r="C225">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D225" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E225">
+        <v>51.206108090000001</v>
+      </c>
+      <c r="F225" s="2">
+        <v>4.4100584999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>234</v>
+      </c>
+      <c r="B226">
+        <v>38</v>
+      </c>
+      <c r="C226">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D226" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E226">
+        <v>51.205928800000002</v>
+      </c>
+      <c r="F226" s="2">
+        <v>4.4100275</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>235</v>
+      </c>
+      <c r="B227">
+        <v>58</v>
+      </c>
+      <c r="C227">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D227" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E227">
+        <v>51.206710819999998</v>
+      </c>
+      <c r="F227" s="2">
+        <v>4.4096202900000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>236</v>
+      </c>
+      <c r="B228">
+        <v>40</v>
+      </c>
+      <c r="C228">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D228" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E228">
+        <v>51.20684052</v>
+      </c>
+      <c r="F228" s="2">
+        <v>4.4096302999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229">
+        <v>50</v>
+      </c>
+      <c r="C229">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D229" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E229">
+        <v>51.2061615</v>
+      </c>
+      <c r="F229" s="2">
+        <v>4.4098706200000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>238</v>
+      </c>
+      <c r="B230">
+        <v>40</v>
+      </c>
+      <c r="C230">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D230" s="2">
+        <v>4.409808</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>239</v>
+      </c>
+      <c r="B231">
+        <v>58</v>
+      </c>
+      <c r="C231">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D231" s="2">
+        <v>4.409808</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>240</v>
+      </c>
+      <c r="B232">
+        <v>58</v>
+      </c>
+      <c r="C232">
+        <v>51.206448999999999</v>
+      </c>
+      <c r="D232" s="2">
+        <v>4.409808</v>
+      </c>
+      <c r="E232">
+        <v>51.206970210000001</v>
+      </c>
+      <c r="F232" s="2">
+        <v>4.40958118</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>241</v>
+      </c>
+      <c r="B234">
+        <v>18</v>
+      </c>
+      <c r="C234">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D234" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="J234" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>243</v>
+      </c>
+      <c r="B235">
+        <v>25</v>
+      </c>
+      <c r="C235">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D235" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E235">
+        <v>51.211875919999997</v>
+      </c>
+      <c r="F235" s="2">
+        <v>4.4170384399999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>244</v>
+      </c>
+      <c r="B236">
+        <v>20</v>
+      </c>
+      <c r="C236">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D236" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E236">
+        <v>51.211624149999999</v>
+      </c>
+      <c r="F236" s="2">
+        <v>4.4171681400000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>245</v>
+      </c>
+      <c r="B237">
+        <v>26</v>
+      </c>
+      <c r="C237">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D237" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E237">
+        <v>51.212539669999998</v>
+      </c>
+      <c r="F237" s="2">
+        <v>4.4166269299999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>246</v>
+      </c>
+      <c r="B238">
+        <v>20</v>
+      </c>
+      <c r="C238">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D238" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E238">
+        <v>51.212615970000002</v>
+      </c>
+      <c r="F238" s="2">
+        <v>4.4165940299999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>247</v>
+      </c>
+      <c r="B239">
+        <v>23</v>
+      </c>
+      <c r="C239">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D239" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>248</v>
+      </c>
+      <c r="B240">
+        <v>20</v>
+      </c>
+      <c r="C240">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D240" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>249</v>
+      </c>
+      <c r="B241">
+        <v>26</v>
+      </c>
+      <c r="C241">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D241" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E241">
+        <v>51.210514070000002</v>
+      </c>
+      <c r="F241" s="2">
+        <v>4.4128389400000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>250</v>
+      </c>
+      <c r="B242">
+        <v>30</v>
+      </c>
+      <c r="C242">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D242" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E242">
+        <v>51.211338040000001</v>
+      </c>
+      <c r="F242" s="2">
+        <v>4.4173741299999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>251</v>
+      </c>
+      <c r="B243">
+        <v>30</v>
+      </c>
+      <c r="C243">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D243" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E243">
+        <v>51.212230679999998</v>
+      </c>
+      <c r="F243" s="2">
+        <v>4.4168567699999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>252</v>
+      </c>
+      <c r="B244">
+        <v>26</v>
+      </c>
+      <c r="C244">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D244" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245">
+        <v>30</v>
+      </c>
+      <c r="C245">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D245" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>254</v>
+      </c>
+      <c r="B246">
+        <v>18</v>
+      </c>
+      <c r="C246">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D246" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>255</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D247" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>256</v>
+      </c>
+      <c r="B248">
+        <v>18</v>
+      </c>
+      <c r="C248">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D248" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>257</v>
+      </c>
+      <c r="B249">
+        <v>21</v>
+      </c>
+      <c r="C249">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D249" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E249">
+        <v>51.211673740000002</v>
+      </c>
+      <c r="F249" s="2">
+        <v>4.4171695700000004</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>258</v>
+      </c>
+      <c r="B250">
+        <v>28</v>
+      </c>
+      <c r="C250">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D250" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E250">
+        <v>51.211540220000003</v>
+      </c>
+      <c r="F250" s="2">
+        <v>4.41721773</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>259</v>
+      </c>
+      <c r="B251">
+        <v>26</v>
+      </c>
+      <c r="C251">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D251" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>260</v>
+      </c>
+      <c r="B252">
+        <v>25</v>
+      </c>
+      <c r="C252">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D252" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E252">
+        <v>51.21465302</v>
+      </c>
+      <c r="F252" s="2">
+        <v>4.4103798899999997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>261</v>
+      </c>
+      <c r="B253">
+        <v>18</v>
+      </c>
+      <c r="C253">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D253" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+      <c r="E253">
+        <v>51.211727140000001</v>
+      </c>
+      <c r="F253" s="2">
+        <v>4.4171094899999996</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>262</v>
+      </c>
+      <c r="B254">
+        <v>28</v>
+      </c>
+      <c r="C254">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D254" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>263</v>
+      </c>
+      <c r="B255">
+        <v>25</v>
+      </c>
+      <c r="C255">
+        <v>51.212009999999999</v>
+      </c>
+      <c r="D255" s="2">
+        <v>4.4143039999999996</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257">
+        <v>51</v>
+      </c>
+      <c r="C257">
+        <v>51.210515000000001</v>
+      </c>
+      <c r="D257" s="2">
+        <v>4.4169150000000004</v>
+      </c>
+      <c r="J257" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>266</v>
+      </c>
+      <c r="B258">
+        <v>56</v>
+      </c>
+      <c r="C258">
+        <v>51.210515000000001</v>
+      </c>
+      <c r="D258" s="2">
+        <v>4.4169150000000004</v>
+      </c>
+      <c r="E258">
+        <v>51.210361480000003</v>
+      </c>
+      <c r="F258" s="2">
+        <v>4.4169616700000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>267</v>
+      </c>
+      <c r="B259">
+        <v>31</v>
+      </c>
+      <c r="C259">
+        <v>51.210515000000001</v>
+      </c>
+      <c r="D259" s="2">
+        <v>4.4169150000000004</v>
+      </c>
+      <c r="E259">
+        <v>51.210376740000001</v>
+      </c>
+      <c r="F259" s="2">
+        <v>4.4184389099999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>268</v>
+      </c>
+      <c r="B260">
+        <v>38</v>
+      </c>
+      <c r="C260">
+        <v>51.210515000000001</v>
+      </c>
+      <c r="D260" s="2">
+        <v>4.4169150000000004</v>
+      </c>
+      <c r="E260">
+        <v>51.210445399999998</v>
+      </c>
+      <c r="F260" s="2">
+        <v>4.4178662299999996</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>269</v>
+      </c>
+      <c r="B261">
+        <v>48</v>
+      </c>
+      <c r="C261">
+        <v>51.210515000000001</v>
+      </c>
+      <c r="D261" s="2">
+        <v>4.4169150000000004</v>
+      </c>
+      <c r="E261">
+        <v>51.210399629999998</v>
+      </c>
+      <c r="F261" s="2">
+        <v>4.4172406200000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>270</v>
+      </c>
+      <c r="B262">
+        <v>38</v>
+      </c>
+      <c r="C262">
+        <v>51.210515000000001</v>
+      </c>
+      <c r="D262" s="2">
+        <v>4.4169150000000004</v>
+      </c>
+      <c r="E262">
+        <v>51.210414890000003</v>
+      </c>
+      <c r="F262" s="2">
+        <v>4.41734838</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>271</v>
+      </c>
+      <c r="B263">
+        <v>60</v>
+      </c>
+      <c r="C263">
+        <v>51.210515000000001</v>
+      </c>
+      <c r="D263" s="2">
+        <v>4.4169150000000004</v>
+      </c>
+      <c r="E263">
+        <v>51.210163119999997</v>
+      </c>
+      <c r="F263" s="2">
+        <v>4.4172411</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264">
+        <v>56</v>
+      </c>
+      <c r="C264">
+        <v>51.210515000000001</v>
+      </c>
+      <c r="D264" s="2">
+        <v>4.4169150000000004</v>
+      </c>
+      <c r="E264">
+        <v>51.210487370000003</v>
+      </c>
+      <c r="F264" s="2">
+        <v>4.4171724299999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>273</v>
+      </c>
+      <c r="B265">
+        <v>46</v>
+      </c>
+      <c r="C265">
+        <v>51.210515000000001</v>
+      </c>
+      <c r="D265" s="2">
+        <v>4.4169150000000004</v>
+      </c>
+      <c r="E265">
+        <v>51.210433960000003</v>
+      </c>
+      <c r="F265" s="2">
+        <v>4.4167075200000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>274</v>
+      </c>
+      <c r="B267">
+        <v>63</v>
+      </c>
+      <c r="C267">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D267" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="J267" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>276</v>
+      </c>
+      <c r="B268">
+        <v>55</v>
+      </c>
+      <c r="C268">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D268" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269">
+        <v>53</v>
+      </c>
+      <c r="C269">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D269" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E269">
+        <v>51.205509190000001</v>
+      </c>
+      <c r="F269" s="2">
+        <v>4.4261651000000004</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>278</v>
+      </c>
+      <c r="B270">
+        <v>23</v>
+      </c>
+      <c r="C270">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D270" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>279</v>
+      </c>
+      <c r="B271">
+        <v>61</v>
+      </c>
+      <c r="C271">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D271" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E271">
+        <v>51.204906459999997</v>
+      </c>
+      <c r="F271" s="2">
+        <v>4.4266319300000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>280</v>
+      </c>
+      <c r="B272">
+        <v>75</v>
+      </c>
+      <c r="C272">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D272" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E272">
+        <v>51.205158230000002</v>
+      </c>
+      <c r="F272" s="2">
+        <v>4.4265327499999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>281</v>
+      </c>
+      <c r="B273">
+        <v>36</v>
+      </c>
+      <c r="C273">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D273" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>282</v>
+      </c>
+      <c r="B274">
+        <v>50</v>
+      </c>
+      <c r="C274">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D274" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E274">
+        <v>51.205596919999998</v>
+      </c>
+      <c r="F274" s="2">
+        <v>4.4260702099999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>283</v>
+      </c>
+      <c r="B275">
+        <v>73</v>
+      </c>
+      <c r="C275">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D275" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E275">
+        <v>51.204544069999997</v>
+      </c>
+      <c r="F275" s="2">
+        <v>4.4270439100000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>284</v>
+      </c>
+      <c r="B276">
+        <v>43</v>
+      </c>
+      <c r="C276">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D276" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E276">
+        <v>51.206245420000002</v>
+      </c>
+      <c r="F276" s="2">
+        <v>4.4255285300000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>285</v>
+      </c>
+      <c r="B277">
+        <v>5</v>
+      </c>
+      <c r="C277">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D277" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>286</v>
+      </c>
+      <c r="B278">
+        <v>50</v>
+      </c>
+      <c r="C278">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D278" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E278">
+        <v>51.205345149999999</v>
+      </c>
+      <c r="F278" s="2">
+        <v>4.4259095200000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>287</v>
+      </c>
+      <c r="B279">
+        <v>36</v>
+      </c>
+      <c r="C279">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D279" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E279">
+        <v>51.20626068</v>
+      </c>
+      <c r="F279" s="2">
+        <v>4.4255862199999996</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280">
+        <v>61</v>
+      </c>
+      <c r="C280">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D280" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E280">
+        <v>51.2052269</v>
+      </c>
+      <c r="F280" s="2">
+        <v>4.4263858799999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>289</v>
+      </c>
+      <c r="B281">
+        <v>76</v>
+      </c>
+      <c r="C281">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D281" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E281">
+        <v>51.205287929999997</v>
+      </c>
+      <c r="F281" s="2">
+        <v>4.4264068600000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>290</v>
+      </c>
+      <c r="B282">
+        <v>68</v>
+      </c>
+      <c r="C282">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D282" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E282">
+        <v>51.204963679999999</v>
+      </c>
+      <c r="F282" s="2">
+        <v>4.4267587700000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>291</v>
+      </c>
+      <c r="B283">
+        <v>48</v>
+      </c>
+      <c r="C283">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D283" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E283">
+        <v>51.205009459999999</v>
+      </c>
+      <c r="F283" s="2">
+        <v>4.4265565899999997</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284">
+        <v>61</v>
+      </c>
+      <c r="C284">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D284" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E284">
+        <v>51.204582209999998</v>
+      </c>
+      <c r="F284" s="2">
+        <v>4.4269189799999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>293</v>
+      </c>
+      <c r="B285">
+        <v>46</v>
+      </c>
+      <c r="C285">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D285" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E285">
+        <v>51.205219270000001</v>
+      </c>
+      <c r="F285" s="2">
+        <v>4.42634916</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286">
+        <v>40</v>
+      </c>
+      <c r="C286">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D286" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E286">
+        <v>51.205348970000003</v>
+      </c>
+      <c r="F286" s="2">
+        <v>4.4259324099999997</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>295</v>
+      </c>
+      <c r="B287">
+        <v>41</v>
+      </c>
+      <c r="C287">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D287" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E287">
+        <v>51.206138609999996</v>
+      </c>
+      <c r="F287" s="2">
+        <v>4.4253435100000003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>296</v>
+      </c>
+      <c r="B288">
+        <v>68</v>
+      </c>
+      <c r="C288">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D288" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E288">
+        <v>51.204845429999999</v>
+      </c>
+      <c r="F288" s="2">
+        <v>4.4269537899999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>297</v>
+      </c>
+      <c r="B289">
+        <v>55</v>
+      </c>
+      <c r="C289">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D289" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E289">
+        <v>51.205093380000001</v>
+      </c>
+      <c r="F289" s="2">
+        <v>4.4264893499999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>298</v>
+      </c>
+      <c r="B290">
+        <v>51</v>
+      </c>
+      <c r="C290">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D290" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>299</v>
+      </c>
+      <c r="B291">
+        <v>66</v>
+      </c>
+      <c r="C291">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D291" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E291">
+        <v>51.204761509999997</v>
+      </c>
+      <c r="F291" s="2">
+        <v>4.4267768900000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>300</v>
+      </c>
+      <c r="B292">
+        <v>51</v>
+      </c>
+      <c r="C292">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D292" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E292">
+        <v>51.205242159999997</v>
+      </c>
+      <c r="F292" s="2">
+        <v>4.4263720500000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>301</v>
+      </c>
+      <c r="B293">
+        <v>70</v>
+      </c>
+      <c r="C293">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D293" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+      <c r="E293">
+        <v>51.2052269</v>
+      </c>
+      <c r="F293" s="2">
+        <v>4.4264287900000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>302</v>
+      </c>
+      <c r="B294">
+        <v>56</v>
+      </c>
+      <c r="C294">
+        <v>51.205872999999997</v>
+      </c>
+      <c r="D294" s="2">
+        <v>4.4267070000000004</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>303</v>
+      </c>
+      <c r="B296">
+        <v>16</v>
+      </c>
+      <c r="C296">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D296" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+      <c r="J296" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>305</v>
+      </c>
+      <c r="B297">
+        <v>23</v>
+      </c>
+      <c r="C297">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D297" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>306</v>
+      </c>
+      <c r="B298">
+        <v>31</v>
+      </c>
+      <c r="C298">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D298" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+      <c r="E298">
+        <v>51.2018013</v>
+      </c>
+      <c r="F298" s="2">
+        <v>4.4223961799999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>307</v>
+      </c>
+      <c r="B299">
+        <v>23</v>
+      </c>
+      <c r="C299">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D299" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>308</v>
+      </c>
+      <c r="B300">
+        <v>21</v>
+      </c>
+      <c r="C300">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D300" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+      <c r="E300">
+        <v>51.226268769999997</v>
+      </c>
+      <c r="F300" s="2">
+        <v>4.4141087499999996</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>309</v>
+      </c>
+      <c r="B301">
+        <v>33</v>
+      </c>
+      <c r="C301">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D301" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+      <c r="E301">
+        <v>51.201751710000003</v>
+      </c>
+      <c r="F301" s="2">
+        <v>4.4226064699999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>310</v>
+      </c>
+      <c r="B302">
+        <v>23</v>
+      </c>
+      <c r="C302">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D302" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>311</v>
+      </c>
+      <c r="B303">
+        <v>10</v>
+      </c>
+      <c r="C303">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D303" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>312</v>
+      </c>
+      <c r="B304">
+        <v>36</v>
+      </c>
+      <c r="C304">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D304" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+      <c r="E304">
+        <v>51.201896669999996</v>
+      </c>
+      <c r="F304" s="2">
+        <v>4.4225249299999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>313</v>
+      </c>
+      <c r="B305">
+        <v>38</v>
+      </c>
+      <c r="C305">
+        <v>51.202314999999999</v>
+      </c>
+      <c r="D305" s="2">
+        <v>4.4227569999999998</v>
+      </c>
+      <c r="E305">
+        <v>51.201896669999996</v>
+      </c>
+      <c r="F305" s="2">
+        <v>4.4225249299999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>314</v>
+      </c>
+      <c r="B307">
+        <v>41</v>
+      </c>
+      <c r="C307">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D307" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E307">
+        <v>51.201988219999997</v>
+      </c>
+      <c r="F307" s="2">
+        <v>4.4298481900000004</v>
+      </c>
+      <c r="J307" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>316</v>
+      </c>
+      <c r="B308">
+        <v>61</v>
+      </c>
+      <c r="C308">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D308" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E308">
+        <v>51.199020390000001</v>
+      </c>
+      <c r="F308" s="2">
+        <v>4.4323553999999996</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>317</v>
+      </c>
+      <c r="B309">
+        <v>60</v>
+      </c>
+      <c r="C309">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D309" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E309">
+        <v>51.19859314</v>
+      </c>
+      <c r="F309" s="2">
+        <v>4.4318962099999997</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>318</v>
+      </c>
+      <c r="B310">
+        <v>26</v>
+      </c>
+      <c r="C310">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D310" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E310">
+        <v>51.198379520000003</v>
+      </c>
+      <c r="F310" s="2">
+        <v>4.4329991299999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>319</v>
+      </c>
+      <c r="B311">
+        <v>56</v>
+      </c>
+      <c r="C311">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D311" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E311">
+        <v>51.199211120000001</v>
+      </c>
+      <c r="F311" s="2">
+        <v>4.4323644599999996</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>320</v>
+      </c>
+      <c r="B312">
+        <v>33</v>
+      </c>
+      <c r="C312">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D312" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E312">
+        <v>51.195415500000003</v>
+      </c>
+      <c r="F312" s="2">
+        <v>4.4117898899999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>321</v>
+      </c>
+      <c r="B313">
+        <v>53</v>
+      </c>
+      <c r="C313">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D313" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E313">
+        <v>51.198917389999998</v>
+      </c>
+      <c r="F313" s="2">
+        <v>4.4320879</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>322</v>
+      </c>
+      <c r="B314">
+        <v>36</v>
+      </c>
+      <c r="C314">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D314" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E314">
+        <v>51.199924469999999</v>
+      </c>
+      <c r="F314" s="2">
+        <v>4.4316058199999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>323</v>
+      </c>
+      <c r="B315">
+        <v>35</v>
+      </c>
+      <c r="C315">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D315" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E315">
+        <v>51.195583339999999</v>
+      </c>
+      <c r="F315" s="2">
+        <v>4.4130311000000004</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>324</v>
+      </c>
+      <c r="B316">
+        <v>18</v>
+      </c>
+      <c r="C316">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D316" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E316">
+        <v>51.199878689999998</v>
+      </c>
+      <c r="F316" s="2">
+        <v>4.4300155600000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>325</v>
+      </c>
+      <c r="B317">
+        <v>38</v>
+      </c>
+      <c r="C317">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D317" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>326</v>
+      </c>
+      <c r="B318">
+        <v>25</v>
+      </c>
+      <c r="C318">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D318" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E318">
+        <v>51.20174789</v>
+      </c>
+      <c r="F318" s="2">
+        <v>4.4374680499999997</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>327</v>
+      </c>
+      <c r="B319">
+        <v>28</v>
+      </c>
+      <c r="C319">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D319" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>328</v>
+      </c>
+      <c r="B320">
+        <v>63</v>
+      </c>
+      <c r="C320">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D320" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E320">
+        <v>51.198963169999999</v>
+      </c>
+      <c r="F320" s="2">
+        <v>4.4321961400000003</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>329</v>
+      </c>
+      <c r="B321">
+        <v>56</v>
+      </c>
+      <c r="C321">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D321" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E321">
+        <v>51.198787690000003</v>
+      </c>
+      <c r="F321" s="2">
+        <v>4.4323081999999996</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>330</v>
+      </c>
+      <c r="B322">
+        <v>21</v>
+      </c>
+      <c r="C322">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D322" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E322">
+        <v>51.200035100000001</v>
+      </c>
+      <c r="F322" s="2">
+        <v>4.4315700500000004</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>331</v>
+      </c>
+      <c r="B323">
+        <v>56</v>
+      </c>
+      <c r="C323">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D323" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E323">
+        <v>51.198722840000002</v>
+      </c>
+      <c r="F323" s="2">
+        <v>4.4320383100000003</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>332</v>
+      </c>
+      <c r="B324">
+        <v>35</v>
+      </c>
+      <c r="C324">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D324" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E324">
+        <v>51.194072720000001</v>
+      </c>
+      <c r="F324" s="2">
+        <v>4.4047293700000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>333</v>
+      </c>
+      <c r="B325">
+        <v>38</v>
+      </c>
+      <c r="C325">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D325" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>334</v>
+      </c>
+      <c r="B326">
+        <v>26</v>
+      </c>
+      <c r="C326">
+        <v>51.199029000000003</v>
+      </c>
+      <c r="D326" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>335</v>
+      </c>
+      <c r="B328">
+        <v>71</v>
+      </c>
+      <c r="C328">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D328" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E328">
+        <v>51.196758269999997</v>
+      </c>
+      <c r="F328" s="2">
+        <v>4.4222254799999998</v>
+      </c>
+      <c r="J328" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>337</v>
+      </c>
+      <c r="B329">
+        <v>53</v>
+      </c>
+      <c r="C329">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D329" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E329">
+        <v>51.19670868</v>
+      </c>
+      <c r="F329" s="2">
+        <v>4.4220829000000004</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>338</v>
+      </c>
+      <c r="B330">
+        <v>70</v>
+      </c>
+      <c r="C330">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D330" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E330">
+        <v>51.134067539999997</v>
+      </c>
+      <c r="F330" s="2">
+        <v>4.3662924800000003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>339</v>
+      </c>
+      <c r="B331">
+        <v>78</v>
+      </c>
+      <c r="C331">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D331" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E331">
+        <v>51.196800230000001</v>
+      </c>
+      <c r="F331" s="2">
+        <v>4.4223089199999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>340</v>
+      </c>
+      <c r="B332">
+        <v>58</v>
+      </c>
+      <c r="C332">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D332" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E332">
+        <v>51.174987790000003</v>
+      </c>
+      <c r="F332" s="2">
+        <v>4.3572044400000003</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>341</v>
+      </c>
+      <c r="B333">
+        <v>50</v>
+      </c>
+      <c r="C333">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D333" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E333">
+        <v>51.196681980000001</v>
+      </c>
+      <c r="F333" s="2">
+        <v>4.42203999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>342</v>
+      </c>
+      <c r="B334">
+        <v>50</v>
+      </c>
+      <c r="C334">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D334" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>343</v>
+      </c>
+      <c r="B335">
+        <v>35</v>
+      </c>
+      <c r="C335">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D335" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>344</v>
+      </c>
+      <c r="B336">
+        <v>31</v>
+      </c>
+      <c r="C336">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D336" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E336">
+        <v>51.196258540000002</v>
+      </c>
+      <c r="F336" s="2">
+        <v>4.4212298399999996</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>345</v>
+      </c>
+      <c r="B337">
+        <v>58</v>
+      </c>
+      <c r="C337">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D337" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>346</v>
+      </c>
+      <c r="B338">
+        <v>78</v>
+      </c>
+      <c r="C338">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D338" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E338">
+        <v>51.134445190000001</v>
+      </c>
+      <c r="F338" s="2">
+        <v>4.3662085499999996</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>347</v>
+      </c>
+      <c r="B339">
+        <v>43</v>
+      </c>
+      <c r="C339">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D339" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E339">
+        <v>51.196601870000002</v>
+      </c>
+      <c r="F339" s="2">
+        <v>4.4219198200000003</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>348</v>
+      </c>
+      <c r="B340">
+        <v>78</v>
+      </c>
+      <c r="C340">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D340" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E340">
+        <v>51.19685364</v>
+      </c>
+      <c r="F340" s="2">
+        <v>4.4224233599999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>349</v>
+      </c>
+      <c r="B341">
+        <v>60</v>
+      </c>
+      <c r="C341">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D341" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>350</v>
+      </c>
+      <c r="B342">
+        <v>63</v>
+      </c>
+      <c r="C342">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D342" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>351</v>
+      </c>
+      <c r="B343">
+        <v>48</v>
+      </c>
+      <c r="C343">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D343" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>352</v>
+      </c>
+      <c r="B344">
+        <v>60</v>
+      </c>
+      <c r="C344">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D344" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E344">
+        <v>51.196720120000002</v>
+      </c>
+      <c r="F344" s="2">
+        <v>4.4221763599999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>353</v>
+      </c>
+      <c r="B345">
+        <v>35</v>
+      </c>
+      <c r="C345">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D345" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>354</v>
+      </c>
+      <c r="B346">
+        <v>41</v>
+      </c>
+      <c r="C346">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D346" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>355</v>
+      </c>
+      <c r="B347">
+        <v>6</v>
+      </c>
+      <c r="C347">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D347" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>356</v>
+      </c>
+      <c r="B348">
+        <v>51</v>
+      </c>
+      <c r="C348">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D348" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E348">
+        <v>51.197017670000001</v>
+      </c>
+      <c r="F348" s="2">
+        <v>4.42279673</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>357</v>
+      </c>
+      <c r="B349">
+        <v>80</v>
+      </c>
+      <c r="C349">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D349" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E349">
+        <v>51.196865080000002</v>
+      </c>
+      <c r="F349" s="2">
+        <v>4.42244291</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>358</v>
+      </c>
+      <c r="B350">
+        <v>73</v>
+      </c>
+      <c r="C350">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D350" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>359</v>
+      </c>
+      <c r="B351">
+        <v>35</v>
+      </c>
+      <c r="C351">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D351" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E351">
+        <v>51.10845947</v>
+      </c>
+      <c r="F351" s="2">
+        <v>4.3259310700000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>360</v>
+      </c>
+      <c r="B352">
+        <v>63</v>
+      </c>
+      <c r="C352">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D352" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>361</v>
+      </c>
+      <c r="B353">
+        <v>55</v>
+      </c>
+      <c r="C353">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D353" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>362</v>
+      </c>
+      <c r="B354">
+        <v>51</v>
+      </c>
+      <c r="C354">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D354" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>363</v>
+      </c>
+      <c r="B355">
+        <v>20</v>
+      </c>
+      <c r="C355">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D355" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E355">
+        <v>50.794902800000003</v>
+      </c>
+      <c r="F355" s="2">
+        <v>4.3496656399999996</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>364</v>
+      </c>
+      <c r="B356">
+        <v>33</v>
+      </c>
+      <c r="C356">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D356" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>365</v>
+      </c>
+      <c r="B357">
+        <v>58</v>
+      </c>
+      <c r="C357">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D357" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E357">
+        <v>51.196784970000003</v>
+      </c>
+      <c r="F357" s="2">
+        <v>4.4222187999999996</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>366</v>
+      </c>
+      <c r="B358">
+        <v>25</v>
+      </c>
+      <c r="C358">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D358" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E358">
+        <v>51.17274475</v>
+      </c>
+      <c r="F358" s="2">
+        <v>4.3505239500000004</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>367</v>
+      </c>
+      <c r="B359">
+        <v>41</v>
+      </c>
+      <c r="C359">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D359" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E359">
+        <v>51.174987790000003</v>
+      </c>
+      <c r="F359" s="2">
+        <v>4.3572044400000003</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>368</v>
+      </c>
+      <c r="B360">
+        <v>40</v>
+      </c>
+      <c r="C360">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D360" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E360">
+        <v>51.196769709999998</v>
+      </c>
+      <c r="F360" s="2">
+        <v>4.4222025900000004</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>369</v>
+      </c>
+      <c r="B361">
+        <v>70</v>
+      </c>
+      <c r="C361">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D361" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E361">
+        <v>51.196762079999999</v>
+      </c>
+      <c r="F361" s="2">
+        <v>4.4222364399999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>370</v>
+      </c>
+      <c r="B362">
+        <v>51</v>
+      </c>
+      <c r="C362">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D362" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E362">
+        <v>51.196647640000002</v>
+      </c>
+      <c r="F362" s="2">
+        <v>4.4218893100000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>371</v>
+      </c>
+      <c r="B363">
+        <v>53</v>
+      </c>
+      <c r="C363">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D363" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+      <c r="E363">
+        <v>51.196716309999999</v>
+      </c>
+      <c r="F363" s="2">
+        <v>4.42215633</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>372</v>
+      </c>
+      <c r="B364">
+        <v>55</v>
+      </c>
+      <c r="C364">
+        <v>51.196615000000001</v>
+      </c>
+      <c r="D364" s="2">
+        <v>4.4220670000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>373</v>
+      </c>
+      <c r="B366">
+        <v>65</v>
+      </c>
+      <c r="C366">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D366" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E366">
+        <v>51.193122860000003</v>
+      </c>
+      <c r="F366" s="2">
+        <v>4.4212303200000003</v>
+      </c>
+      <c r="J366" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>375</v>
+      </c>
+      <c r="B367">
+        <v>63</v>
+      </c>
+      <c r="C367">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D367" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E367">
+        <v>51.192653659999998</v>
+      </c>
+      <c r="F367" s="2">
+        <v>4.4207019799999996</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>376</v>
+      </c>
+      <c r="B368">
+        <v>48</v>
+      </c>
+      <c r="C368">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D368" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E368">
+        <v>51.192844389999998</v>
+      </c>
+      <c r="F368" s="2">
+        <v>4.4212679899999996</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>377</v>
+      </c>
+      <c r="B369">
+        <v>61</v>
+      </c>
+      <c r="C369">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D369" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E369">
+        <v>51.193080899999998</v>
+      </c>
+      <c r="F369" s="2">
+        <v>4.4216365800000004</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>378</v>
+      </c>
+      <c r="B370">
+        <v>58</v>
+      </c>
+      <c r="C370">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D370" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E370">
+        <v>51.192264559999998</v>
+      </c>
+      <c r="F370" s="2">
+        <v>4.4190316200000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>379</v>
+      </c>
+      <c r="B371">
+        <v>50</v>
+      </c>
+      <c r="C371">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D371" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E371">
+        <v>51.192726139999998</v>
+      </c>
+      <c r="F371" s="2">
+        <v>4.4200758899999997</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>380</v>
+      </c>
+      <c r="B372">
+        <v>63</v>
+      </c>
+      <c r="C372">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D372" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>381</v>
+      </c>
+      <c r="B373">
+        <v>63</v>
+      </c>
+      <c r="C373">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D373" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E373">
+        <v>51.192485810000001</v>
+      </c>
+      <c r="F373" s="2">
+        <v>4.4208583800000003</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>382</v>
+      </c>
+      <c r="B374">
+        <v>53</v>
+      </c>
+      <c r="C374">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D374" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>383</v>
+      </c>
+      <c r="B375">
+        <v>63</v>
+      </c>
+      <c r="C375">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D375" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E375">
+        <v>51.19348145</v>
+      </c>
+      <c r="F375" s="2">
+        <v>4.4210071600000003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>384</v>
+      </c>
+      <c r="B376">
+        <v>65</v>
+      </c>
+      <c r="C376">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D376" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E376">
+        <v>51.192550660000002</v>
+      </c>
+      <c r="F376" s="2">
+        <v>4.4205031400000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>385</v>
+      </c>
+      <c r="B377">
+        <v>63</v>
+      </c>
+      <c r="C377">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D377" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E377">
+        <v>51.192390439999997</v>
+      </c>
+      <c r="F377" s="2">
+        <v>4.4202084499999996</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>386</v>
+      </c>
+      <c r="B378">
+        <v>31</v>
+      </c>
+      <c r="C378">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D378" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E378">
+        <v>51.19319153</v>
+      </c>
+      <c r="F378" s="2">
+        <v>4.4086422900000004</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>387</v>
+      </c>
+      <c r="B379">
+        <v>60</v>
+      </c>
+      <c r="C379">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D379" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E379">
+        <v>51.193260189999997</v>
+      </c>
+      <c r="F379" s="2">
+        <v>4.4210972799999997</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>388</v>
+      </c>
+      <c r="B380">
+        <v>53</v>
+      </c>
+      <c r="C380">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D380" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E380">
+        <v>51.193023680000003</v>
+      </c>
+      <c r="F380" s="2">
+        <v>4.4209885599999996</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>389</v>
+      </c>
+      <c r="B381">
+        <v>66</v>
+      </c>
+      <c r="C381">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D381" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E381">
+        <v>51.192878720000003</v>
+      </c>
+      <c r="F381" s="2">
+        <v>4.4221119900000003</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>390</v>
+      </c>
+      <c r="B382">
+        <v>63</v>
+      </c>
+      <c r="C382">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D382" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E382">
+        <v>51.192832950000003</v>
+      </c>
+      <c r="F382" s="2">
+        <v>4.4213094699999997</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>391</v>
+      </c>
+      <c r="B383">
+        <v>55</v>
+      </c>
+      <c r="C383">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D383" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E383">
+        <v>51.193016049999997</v>
+      </c>
+      <c r="F383" s="2">
+        <v>4.4208760299999996</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>392</v>
+      </c>
+      <c r="B384">
+        <v>43</v>
+      </c>
+      <c r="C384">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D384" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E384">
+        <v>51.192276</v>
+      </c>
+      <c r="F384" s="2">
+        <v>4.4224686599999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>393</v>
+      </c>
+      <c r="B385">
+        <v>45</v>
+      </c>
+      <c r="C385">
+        <v>51.193010999999998</v>
+      </c>
+      <c r="D385" s="2">
+        <v>4.4207159999999996</v>
+      </c>
+      <c r="E385">
+        <v>51.192935939999998</v>
+      </c>
+      <c r="F385" s="2">
+        <v>4.4208149900000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>394</v>
+      </c>
+      <c r="B387">
+        <v>51</v>
+      </c>
+      <c r="C387">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D387" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E387">
+        <v>51.196849819999997</v>
+      </c>
+      <c r="F387" s="2">
+        <v>4.4108118999999997</v>
+      </c>
+      <c r="J387" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>396</v>
+      </c>
+      <c r="B388">
+        <v>41</v>
+      </c>
+      <c r="C388">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D388" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E388">
+        <v>51.197017670000001</v>
+      </c>
+      <c r="F388" s="2">
+        <v>4.4107084299999997</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>397</v>
+      </c>
+      <c r="B389">
+        <v>58</v>
+      </c>
+      <c r="C389">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D389" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E389">
+        <v>51.195461270000003</v>
+      </c>
+      <c r="F389" s="2">
+        <v>4.4088149100000003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>398</v>
+      </c>
+      <c r="B390">
+        <v>51</v>
+      </c>
+      <c r="C390">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D390" s="2">
+        <v>4.410075</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>399</v>
+      </c>
+      <c r="B391">
+        <v>58</v>
+      </c>
+      <c r="C391">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D391" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E391">
+        <v>51.19709778</v>
+      </c>
+      <c r="F391" s="2">
+        <v>4.41062975</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>400</v>
+      </c>
+      <c r="B392">
+        <v>56</v>
+      </c>
+      <c r="C392">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D392" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E392">
+        <v>51.197017670000001</v>
+      </c>
+      <c r="F392" s="2">
+        <v>4.4107084299999997</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>401</v>
+      </c>
+      <c r="B393">
+        <v>56</v>
+      </c>
+      <c r="C393">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D393" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E393">
+        <v>51.197067259999997</v>
+      </c>
+      <c r="F393" s="2">
+        <v>4.4106264099999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>402</v>
+      </c>
+      <c r="B394">
+        <v>56</v>
+      </c>
+      <c r="C394">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D394" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E394">
+        <v>51.19763184</v>
+      </c>
+      <c r="F394" s="2">
+        <v>4.4105711000000003</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>403</v>
+      </c>
+      <c r="B395">
+        <v>50</v>
+      </c>
+      <c r="C395">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D395" s="2">
+        <v>4.410075</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>404</v>
+      </c>
+      <c r="B396">
+        <v>45</v>
+      </c>
+      <c r="C396">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D396" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E396">
+        <v>51.196777339999997</v>
+      </c>
+      <c r="F396" s="2">
+        <v>4.4105963700000004</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>405</v>
+      </c>
+      <c r="B397">
+        <v>56</v>
+      </c>
+      <c r="C397">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D397" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E397">
+        <v>51.197067259999997</v>
+      </c>
+      <c r="F397" s="2">
+        <v>4.4106264099999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>406</v>
+      </c>
+      <c r="B398">
+        <v>53</v>
+      </c>
+      <c r="C398">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D398" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E398">
+        <v>51.196849819999997</v>
+      </c>
+      <c r="F398" s="2">
+        <v>4.4108118999999997</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>407</v>
+      </c>
+      <c r="B399">
+        <v>55</v>
+      </c>
+      <c r="C399">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D399" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E399">
+        <v>51.197067259999997</v>
+      </c>
+      <c r="F399" s="2">
+        <v>4.4106264099999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>408</v>
+      </c>
+      <c r="B400">
+        <v>50</v>
+      </c>
+      <c r="C400">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D400" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E400">
+        <v>51.197090150000001</v>
+      </c>
+      <c r="F400" s="2">
+        <v>4.4106130600000002</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>409</v>
+      </c>
+      <c r="B401">
+        <v>56</v>
+      </c>
+      <c r="C401">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D401" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E401">
+        <v>51.197067259999997</v>
+      </c>
+      <c r="F401" s="2">
+        <v>4.4106264099999999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>410</v>
+      </c>
+      <c r="B402">
+        <v>55</v>
+      </c>
+      <c r="C402">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D402" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E402">
+        <v>51.197017670000001</v>
+      </c>
+      <c r="F402" s="2">
+        <v>4.4107084299999997</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>411</v>
+      </c>
+      <c r="B403">
+        <v>48</v>
+      </c>
+      <c r="C403">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D403" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E403">
+        <v>51.197368619999999</v>
+      </c>
+      <c r="F403" s="2">
+        <v>4.4105973199999999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>412</v>
+      </c>
+      <c r="B404">
+        <v>58</v>
+      </c>
+      <c r="C404">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D404" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E404">
+        <v>51.197017670000001</v>
+      </c>
+      <c r="F404" s="2">
+        <v>4.4107084299999997</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>413</v>
+      </c>
+      <c r="B405">
+        <v>65</v>
+      </c>
+      <c r="C405">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D405" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E405">
+        <v>51.197017670000001</v>
+      </c>
+      <c r="F405" s="2">
+        <v>4.4107084299999997</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>414</v>
+      </c>
+      <c r="B406">
+        <v>60</v>
+      </c>
+      <c r="C406">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D406" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E406">
+        <v>51.196361539999998</v>
+      </c>
+      <c r="F406" s="2">
+        <v>4.4100766199999999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>415</v>
+      </c>
+      <c r="B407">
+        <v>56</v>
+      </c>
+      <c r="C407">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D407" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E407">
+        <v>51.197090150000001</v>
+      </c>
+      <c r="F407" s="2">
+        <v>4.4106130600000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>416</v>
+      </c>
+      <c r="B408">
+        <v>48</v>
+      </c>
+      <c r="C408">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D408" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E408">
+        <v>51.196964260000001</v>
+      </c>
+      <c r="F408" s="2">
+        <v>4.4107327500000002</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>417</v>
+      </c>
+      <c r="B409">
+        <v>60</v>
+      </c>
+      <c r="C409">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D409" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E409">
+        <v>51.198307040000003</v>
+      </c>
+      <c r="F409" s="2">
+        <v>4.4109787899999997</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>418</v>
+      </c>
+      <c r="B410">
+        <v>53</v>
+      </c>
+      <c r="C410">
+        <v>51.197102000000001</v>
+      </c>
+      <c r="D410" s="2">
+        <v>4.410075</v>
+      </c>
+      <c r="E410">
+        <v>51.196849819999997</v>
+      </c>
+      <c r="F410" s="2">
+        <v>4.4108118999999997</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>419</v>
+      </c>
+      <c r="B412">
+        <v>26</v>
+      </c>
+      <c r="C412">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D412" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E412">
+        <v>51.192989349999998</v>
+      </c>
+      <c r="F412" s="2">
+        <v>4.4073433900000003</v>
+      </c>
+      <c r="J412" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>421</v>
+      </c>
+      <c r="B413">
+        <v>26</v>
+      </c>
+      <c r="C413">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D413" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>422</v>
+      </c>
+      <c r="B414">
+        <v>21</v>
+      </c>
+      <c r="C414">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D414" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>423</v>
+      </c>
+      <c r="B415">
+        <v>53</v>
+      </c>
+      <c r="C415">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D415" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E415">
+        <v>51.193473820000001</v>
+      </c>
+      <c r="F415" s="2">
+        <v>4.4064969999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>424</v>
+      </c>
+      <c r="B416">
+        <v>25</v>
+      </c>
+      <c r="C416">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D416" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E416">
+        <v>51.193420410000002</v>
+      </c>
+      <c r="F416" s="2">
+        <v>4.4075007399999997</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>425</v>
+      </c>
+      <c r="B417">
+        <v>46</v>
+      </c>
+      <c r="C417">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D417" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E417">
+        <v>51.192760470000003</v>
+      </c>
+      <c r="F417" s="2">
+        <v>4.4073848699999996</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>426</v>
+      </c>
+      <c r="B418">
+        <v>21</v>
+      </c>
+      <c r="C418">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D418" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E418">
+        <v>51.192497250000002</v>
+      </c>
+      <c r="F418" s="2">
+        <v>4.4071340599999997</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>427</v>
+      </c>
+      <c r="B419">
+        <v>26</v>
+      </c>
+      <c r="C419">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D419" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E419">
+        <v>51.193183900000001</v>
+      </c>
+      <c r="F419" s="2">
+        <v>4.4071645699999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>428</v>
+      </c>
+      <c r="B420">
+        <v>30</v>
+      </c>
+      <c r="C420">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D420" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E420">
+        <v>51.193187709999997</v>
+      </c>
+      <c r="F420" s="2">
+        <v>4.4080848699999997</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>429</v>
+      </c>
+      <c r="B421">
+        <v>20</v>
+      </c>
+      <c r="C421">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D421" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E421">
+        <v>51.192008970000003</v>
+      </c>
+      <c r="F421" s="2">
+        <v>4.4049701700000004</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>430</v>
+      </c>
+      <c r="B422">
+        <v>41</v>
+      </c>
+      <c r="C422">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D422" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E422">
+        <v>51.192764279999999</v>
+      </c>
+      <c r="F422" s="2">
+        <v>4.40753269</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>431</v>
+      </c>
+      <c r="B423">
+        <v>25</v>
+      </c>
+      <c r="C423">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D423" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>432</v>
+      </c>
+      <c r="B424">
+        <v>23</v>
+      </c>
+      <c r="C424">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D424" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>433</v>
+      </c>
+      <c r="B425">
+        <v>23</v>
+      </c>
+      <c r="C425">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D425" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E425">
+        <v>51.193786619999997</v>
+      </c>
+      <c r="F425" s="2">
+        <v>4.4057187999999998</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>434</v>
+      </c>
+      <c r="B426">
+        <v>30</v>
+      </c>
+      <c r="C426">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D426" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E426">
+        <v>51.193397519999998</v>
+      </c>
+      <c r="F426" s="2">
+        <v>4.4073772399999998</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>435</v>
+      </c>
+      <c r="B427">
+        <v>58</v>
+      </c>
+      <c r="C427">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D427" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E427">
+        <v>51.193614959999998</v>
+      </c>
+      <c r="F427" s="2">
+        <v>4.4060735700000002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>436</v>
+      </c>
+      <c r="B428">
+        <v>23</v>
+      </c>
+      <c r="C428">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D428" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>437</v>
+      </c>
+      <c r="B429">
+        <v>20</v>
+      </c>
+      <c r="C429">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D429" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E429">
+        <v>51.193183900000001</v>
+      </c>
+      <c r="F429" s="2">
+        <v>4.4071645699999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>438</v>
+      </c>
+      <c r="B430">
+        <v>18</v>
+      </c>
+      <c r="C430">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D430" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E430">
+        <v>51.192462919999997</v>
+      </c>
+      <c r="F430" s="2">
+        <v>4.4071097400000001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>439</v>
+      </c>
+      <c r="B431">
+        <v>25</v>
+      </c>
+      <c r="C431">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D431" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>440</v>
+      </c>
+      <c r="B432">
+        <v>18</v>
+      </c>
+      <c r="C432">
+        <v>51.193002999999997</v>
+      </c>
+      <c r="D432" s="2">
+        <v>4.4065810000000001</v>
+      </c>
+      <c r="E432">
+        <v>51.193042759999997</v>
+      </c>
+      <c r="F432" s="2">
+        <v>4.4078278500000003</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>441</v>
+      </c>
+      <c r="B434">
+        <v>80</v>
+      </c>
+      <c r="C434">
+        <v>51.183906</v>
+      </c>
+      <c r="D434" s="2">
+        <v>4.4208930000000004</v>
+      </c>
+      <c r="J434" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>443</v>
+      </c>
+      <c r="B435">
+        <v>33</v>
+      </c>
+      <c r="C435">
+        <v>51.183906</v>
+      </c>
+      <c r="D435" s="2">
+        <v>4.4208930000000004</v>
+      </c>
+      <c r="E435">
+        <v>51.184787749999998</v>
+      </c>
+      <c r="F435" s="2">
+        <v>4.4212536800000004</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>444</v>
+      </c>
+      <c r="B436">
+        <v>56</v>
+      </c>
+      <c r="C436">
+        <v>51.183906</v>
+      </c>
+      <c r="D436" s="2">
+        <v>4.4208930000000004</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>445</v>
+      </c>
+      <c r="B437">
+        <v>31</v>
+      </c>
+      <c r="C437">
+        <v>51.183906</v>
+      </c>
+      <c r="D437" s="2">
+        <v>4.4208930000000004</v>
+      </c>
+      <c r="E437">
+        <v>51.184906009999999</v>
+      </c>
+      <c r="F437" s="2">
+        <v>4.4210228899999997</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>446</v>
+      </c>
+      <c r="B438">
+        <v>36</v>
+      </c>
+      <c r="C438">
+        <v>51.183906</v>
+      </c>
+      <c r="D438" s="2">
+        <v>4.4208930000000004</v>
+      </c>
+      <c r="E438">
+        <v>51.184425349999998</v>
+      </c>
+      <c r="F438" s="2">
+        <v>4.4216985700000002</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>447</v>
+      </c>
+      <c r="B439">
+        <v>21</v>
+      </c>
+      <c r="C439">
+        <v>51.183906</v>
+      </c>
+      <c r="D439" s="2">
+        <v>4.4208930000000004</v>
+      </c>
+      <c r="E439">
+        <v>51.184906009999999</v>
+      </c>
+      <c r="F439" s="2">
+        <v>4.4210228899999997</v>
       </c>
     </row>
   </sheetData>

--- a/bssids.xlsx
+++ b/bssids.xlsx
@@ -1769,7 +1769,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
     </row>

--- a/bssids.xlsx
+++ b/bssids.xlsx
@@ -9,21 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all data + requests" sheetId="1" r:id="rId1"/>
-    <sheet name="BAP1" sheetId="2" r:id="rId2"/>
-    <sheet name="BAP2" sheetId="3" r:id="rId3"/>
-    <sheet name="BAP3" sheetId="4" r:id="rId4"/>
-    <sheet name="BAP_template" sheetId="5" r:id="rId5"/>
+    <sheet name="BAP3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="880">
   <si>
     <t>Thomas Janssen - Bachelor thesis Wi-Fi localization</t>
   </si>
@@ -2623,7 +2620,7 @@
     <t xml:space="preserve">Location: </t>
   </si>
   <si>
-    <t>Groenenborgerlaan x Prins Boudewijnlaan</t>
+    <t>Italiëlei x Cassiersstraat</t>
   </si>
   <si>
     <t>GPS coordinates:</t>
@@ -2662,10 +2659,7 @@
     <t>Request longitude mean</t>
   </si>
   <si>
-    <t>Error (km)</t>
-  </si>
-  <si>
-    <t>Italiëlei x Cassiersstraat</t>
+    <t>Distance error (km)</t>
   </si>
 </sst>
 </file>
@@ -3244,8 +3238,8 @@
     <col min="11" max="13" width="15.77734375" style="8" customWidth="1"/>
     <col min="14" max="14" width="20.77734375" style="8" customWidth="1"/>
     <col min="15" max="18" width="8" style="8" customWidth="1"/>
-    <col min="19" max="25" width="8.88671875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="19" max="33" width="8.88671875" style="8" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
@@ -18075,10 +18069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K569"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18092,13 +18086,13 @@
     <col min="7" max="7" width="18.77734375" style="8" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="23.109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="8" customWidth="1"/>
     <col min="12" max="13" width="15.77734375" style="8" customWidth="1"/>
     <col min="14" max="14" width="20.77734375" style="8" customWidth="1"/>
     <col min="15" max="18" width="8" style="8" customWidth="1"/>
-    <col min="19" max="25" width="8.88671875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
+    <col min="19" max="33" width="8.88671875" style="8" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
@@ -18120,676 +18114,6 @@
         <v>867</v>
       </c>
       <c r="J1" s="6">
-        <v>51.177791999999997</v>
-      </c>
-      <c r="K1" s="6">
-        <v>4.4241299999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>53</v>
-      </c>
-      <c r="C3">
-        <v>51.177970889999997</v>
-      </c>
-      <c r="D3">
-        <v>4.4243598000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>56</v>
-      </c>
-      <c r="C4">
-        <v>51.17781067</v>
-      </c>
-      <c r="D4">
-        <v>4.4243974699999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>51.177780149999997</v>
-      </c>
-      <c r="D5">
-        <v>4.4244093900000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>53</v>
-      </c>
-      <c r="C8">
-        <v>51.177803040000001</v>
-      </c>
-      <c r="D8">
-        <v>4.4240551000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>68</v>
-      </c>
-      <c r="C10">
-        <v>51.177925109999997</v>
-      </c>
-      <c r="D10">
-        <v>4.4243779200000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>61</v>
-      </c>
-      <c r="C11">
-        <v>51.178215029999997</v>
-      </c>
-      <c r="D11">
-        <v>4.4243364300000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>51.178981780000001</v>
-      </c>
-      <c r="D12">
-        <v>4.4241561899999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>58</v>
-      </c>
-      <c r="C13">
-        <v>51.178050990000003</v>
-      </c>
-      <c r="D13">
-        <v>4.42437696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>58</v>
-      </c>
-      <c r="C14">
-        <v>51.178092960000001</v>
-      </c>
-      <c r="D14">
-        <v>4.4243740999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>63</v>
-      </c>
-      <c r="C16">
-        <v>51.177696230000002</v>
-      </c>
-      <c r="D16">
-        <v>4.42446947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>68</v>
-      </c>
-      <c r="C17">
-        <v>51.177608489999997</v>
-      </c>
-      <c r="D17">
-        <v>4.4244337099999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>68</v>
-      </c>
-      <c r="C18">
-        <v>51.178016659999997</v>
-      </c>
-      <c r="D18">
-        <v>4.42438793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>51.178318019999999</v>
-      </c>
-      <c r="D19">
-        <v>4.4243784000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>51.1787262</v>
-      </c>
-      <c r="D21">
-        <v>4.4242258100000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-      <c r="C26">
-        <v>51.17802811</v>
-      </c>
-      <c r="D26">
-        <v>4.4243574099999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27">
-        <v>48</v>
-      </c>
-      <c r="C27">
-        <v>51.178134919999998</v>
-      </c>
-      <c r="D27">
-        <v>4.4243168800000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>51.17810059</v>
-      </c>
-      <c r="D28">
-        <v>4.4243726700000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30">
-        <v>51</v>
-      </c>
-      <c r="C30">
-        <v>51.177730560000001</v>
-      </c>
-      <c r="D30">
-        <v>4.4239730799999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32">
-        <v>55</v>
-      </c>
-      <c r="C32">
-        <v>51.178043369999997</v>
-      </c>
-      <c r="D32">
-        <v>4.42434978</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>870</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
-  <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="8" customWidth="1"/>
-    <col min="12" max="13" width="15.77734375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="8" customWidth="1"/>
-    <col min="15" max="18" width="8" style="8" customWidth="1"/>
-    <col min="19" max="25" width="8.88671875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
-        <v>870</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K569"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="8" customWidth="1"/>
-    <col min="12" max="13" width="15.77734375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="8" customWidth="1"/>
-    <col min="15" max="18" width="8" style="8" customWidth="1"/>
-    <col min="19" max="25" width="8.88671875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>880</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="J1" s="6">
         <v>51.225822000000001</v>
       </c>
       <c r="K1" s="6">
@@ -19290,7 +18614,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
@@ -19322,7 +18646,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
@@ -19354,7 +18678,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
@@ -19386,7 +18710,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>62</v>
@@ -19418,7 +18742,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
         <v>62</v>
@@ -19444,7 +18768,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
         <v>62</v>
@@ -19476,7 +18800,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -19502,7 +18826,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>62</v>
@@ -19528,7 +18852,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
         <v>62</v>
@@ -19560,7 +18884,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
         <v>62</v>
@@ -19592,7 +18916,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
@@ -19624,7 +18948,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -19656,7 +18980,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
@@ -19688,7 +19012,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -19720,7 +19044,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
         <v>62</v>
@@ -19752,7 +19076,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
@@ -19784,7 +19108,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
@@ -19810,7 +19134,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -19842,7 +19166,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -19868,7 +19192,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -19900,7 +19224,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
@@ -19932,7 +19256,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
@@ -19964,7 +19288,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -19996,7 +19320,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
@@ -20022,7 +19346,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
         <v>62</v>
@@ -20054,7 +19378,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
         <v>62</v>
@@ -20086,7 +19410,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
         <v>62</v>
@@ -20118,7 +19442,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
         <v>62</v>
@@ -20150,7 +19474,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
         <v>62</v>
@@ -20182,7 +19506,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
         <v>62</v>
@@ -20214,7 +19538,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
         <v>62</v>
@@ -20246,7 +19570,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
         <v>62</v>
@@ -20278,7 +19602,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
         <v>64</v>
@@ -20310,7 +19634,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
         <v>64</v>
@@ -20342,7 +19666,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
         <v>64</v>
@@ -20374,7 +19698,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
         <v>64</v>
@@ -20400,7 +19724,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
         <v>64</v>
@@ -20432,7 +19756,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
         <v>64</v>
@@ -20458,7 +19782,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
         <v>64</v>
@@ -20484,7 +19808,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
@@ -20516,7 +19840,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
@@ -20548,7 +19872,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
         <v>64</v>
@@ -20580,7 +19904,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
         <v>64</v>
@@ -20612,7 +19936,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
         <v>64</v>
@@ -20644,7 +19968,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
         <v>64</v>
@@ -20676,7 +20000,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
         <v>64</v>
@@ -20708,7 +20032,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
         <v>64</v>
@@ -20740,7 +20064,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
         <v>64</v>
@@ -20766,7 +20090,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
         <v>64</v>
@@ -20798,7 +20122,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
         <v>64</v>
@@ -20824,7 +20148,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
         <v>64</v>
@@ -20856,7 +20180,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
@@ -20888,7 +20212,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
         <v>64</v>
@@ -20920,7 +20244,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
         <v>64</v>
@@ -20952,7 +20276,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
         <v>64</v>
@@ -20978,7 +20302,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
@@ -21010,7 +20334,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
         <v>64</v>
@@ -21042,7 +20366,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B99" t="s">
         <v>64</v>
@@ -21074,7 +20398,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
         <v>64</v>
@@ -21106,7 +20430,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
         <v>64</v>
@@ -21138,7 +20462,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
@@ -21170,7 +20494,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
@@ -21202,7 +20526,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
         <v>64</v>
@@ -21234,7 +20558,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
         <v>65</v>
@@ -21266,7 +20590,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
         <v>65</v>
@@ -21298,7 +20622,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s">
         <v>65</v>
@@ -21324,7 +20648,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
         <v>65</v>
@@ -21356,7 +20680,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
         <v>65</v>
@@ -21382,7 +20706,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
@@ -21408,7 +20732,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
@@ -21440,7 +20764,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
         <v>65</v>
@@ -21472,7 +20796,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B113" t="s">
         <v>65</v>
@@ -21504,7 +20828,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B114" t="s">
         <v>65</v>
@@ -21536,7 +20860,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -21568,7 +20892,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B116" t="s">
         <v>65</v>
@@ -21600,7 +20924,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B117" t="s">
         <v>65</v>
@@ -21632,7 +20956,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B118" t="s">
         <v>65</v>
@@ -21664,7 +20988,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B119" t="s">
         <v>65</v>
@@ -21690,7 +21014,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -21722,7 +21046,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" t="s">
         <v>65</v>
@@ -21748,7 +21072,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B122" t="s">
         <v>65</v>
@@ -21780,7 +21104,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B123" t="s">
         <v>65</v>
@@ -21812,7 +21136,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B124" t="s">
         <v>65</v>
@@ -21844,7 +21168,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B125" t="s">
         <v>65</v>
@@ -21876,7 +21200,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B126" t="s">
         <v>65</v>
@@ -21902,7 +21226,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B127" t="s">
         <v>65</v>
@@ -21934,7 +21258,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B128" t="s">
         <v>65</v>
@@ -21966,7 +21290,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B129" t="s">
         <v>65</v>
@@ -21998,7 +21322,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B130" t="s">
         <v>65</v>
@@ -22030,7 +21354,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B131" t="s">
         <v>65</v>
@@ -22062,7 +21386,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B132" t="s">
         <v>65</v>
@@ -22094,7 +21418,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133" t="s">
         <v>65</v>
@@ -22126,7 +21450,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B134" t="s">
         <v>65</v>
@@ -22158,7 +21482,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
         <v>66</v>
@@ -22190,7 +21514,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B136" t="s">
         <v>66</v>
@@ -22216,7 +21540,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B137" t="s">
         <v>66</v>
@@ -22248,7 +21572,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B138" t="s">
         <v>66</v>
@@ -22274,7 +21598,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B139" t="s">
         <v>66</v>
@@ -22300,7 +21624,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B140" t="s">
         <v>66</v>
@@ -22332,7 +21656,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B141" t="s">
         <v>66</v>
@@ -22364,7 +21688,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B142" t="s">
         <v>66</v>
@@ -22396,7 +21720,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B143" t="s">
         <v>66</v>
@@ -22428,7 +21752,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B144" t="s">
         <v>66</v>
@@ -22460,7 +21784,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B145" t="s">
         <v>66</v>
@@ -22492,7 +21816,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" t="s">
         <v>66</v>
@@ -22524,7 +21848,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B147" t="s">
         <v>66</v>
@@ -22556,7 +21880,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B148" t="s">
         <v>66</v>
@@ -22582,7 +21906,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B149" t="s">
         <v>66</v>
@@ -22614,7 +21938,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B150" t="s">
         <v>66</v>
@@ -22640,7 +21964,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B151" t="s">
         <v>66</v>
@@ -22672,7 +21996,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B152" t="s">
         <v>66</v>
@@ -22704,7 +22028,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B153" t="s">
         <v>66</v>
@@ -22736,7 +22060,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B154" t="s">
         <v>66</v>
@@ -22768,7 +22092,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B155" t="s">
         <v>66</v>
@@ -22794,7 +22118,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B156" t="s">
         <v>66</v>
@@ -22826,7 +22150,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B157" t="s">
         <v>66</v>
@@ -22858,7 +22182,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B158" t="s">
         <v>66</v>
@@ -22890,7 +22214,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B159" t="s">
         <v>66</v>
@@ -22922,7 +22246,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B160" t="s">
         <v>66</v>
@@ -22954,7 +22278,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B161" t="s">
         <v>66</v>
@@ -22986,7 +22310,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B162" t="s">
         <v>66</v>
@@ -23018,7 +22342,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B163" t="s">
         <v>66</v>
@@ -23050,7 +22374,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B164" t="s">
         <v>67</v>
@@ -23076,7 +22400,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B165" t="s">
         <v>67</v>
@@ -23108,7 +22432,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B166" t="s">
         <v>67</v>
@@ -23134,7 +22458,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B167" t="s">
         <v>67</v>
@@ -23160,7 +22484,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B168" t="s">
         <v>67</v>
@@ -23192,7 +22516,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B169" t="s">
         <v>67</v>
@@ -23224,7 +22548,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B170" t="s">
         <v>67</v>
@@ -23256,7 +22580,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B171" t="s">
         <v>67</v>
@@ -23288,7 +22612,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B172" t="s">
         <v>67</v>
@@ -23320,7 +22644,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B173" t="s">
         <v>67</v>
@@ -23352,7 +22676,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B174" t="s">
         <v>67</v>
@@ -23384,7 +22708,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B175" t="s">
         <v>67</v>
@@ -23416,7 +22740,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B176" t="s">
         <v>67</v>
@@ -23442,7 +22766,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B177" t="s">
         <v>67</v>
@@ -23474,7 +22798,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
         <v>67</v>
@@ -23500,7 +22824,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B179" t="s">
         <v>67</v>
@@ -23532,7 +22856,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B180" t="s">
         <v>67</v>
@@ -23564,7 +22888,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B181" t="s">
         <v>67</v>
@@ -23596,7 +22920,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B182" t="s">
         <v>67</v>
@@ -23628,7 +22952,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B183" t="s">
         <v>67</v>
@@ -23654,7 +22978,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B184" t="s">
         <v>67</v>
@@ -23686,7 +23010,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B185" t="s">
         <v>67</v>
@@ -23718,7 +23042,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B186" t="s">
         <v>67</v>
@@ -23750,7 +23074,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B187" t="s">
         <v>67</v>
@@ -23782,7 +23106,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B188" t="s">
         <v>67</v>
@@ -23814,7 +23138,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B189" t="s">
         <v>67</v>
@@ -23846,7 +23170,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B190" t="s">
         <v>67</v>
@@ -23878,7 +23202,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B191" t="s">
         <v>67</v>
@@ -23910,7 +23234,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B192" t="s">
         <v>68</v>
@@ -23936,7 +23260,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B193" t="s">
         <v>68</v>
@@ -23947,7 +23271,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B194" t="s">
         <v>68</v>
@@ -23958,7 +23282,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B195" t="s">
         <v>68</v>
@@ -23984,7 +23308,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B196" t="s">
         <v>68</v>
@@ -24010,7 +23334,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B197" t="s">
         <v>68</v>
@@ -24036,7 +23360,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B198" t="s">
         <v>68</v>
@@ -24062,7 +23386,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B199" t="s">
         <v>68</v>
@@ -24088,7 +23412,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B200" t="s">
         <v>68</v>
@@ -24114,7 +23438,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B201" t="s">
         <v>68</v>
@@ -24140,7 +23464,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B202" t="s">
         <v>68</v>
@@ -24166,7 +23490,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B203" t="s">
         <v>68</v>
@@ -24177,7 +23501,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B204" t="s">
         <v>68</v>
@@ -24203,7 +23527,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B205" t="s">
         <v>68</v>
@@ -24214,7 +23538,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B206" t="s">
         <v>68</v>
@@ -24240,7 +23564,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B207" t="s">
         <v>68</v>
@@ -24266,7 +23590,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B208" t="s">
         <v>68</v>
@@ -24292,7 +23616,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B209" t="s">
         <v>68</v>
@@ -24318,7 +23642,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B210" t="s">
         <v>68</v>
@@ -24329,7 +23653,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B211" t="s">
         <v>68</v>
@@ -24355,7 +23679,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B212" t="s">
         <v>68</v>
@@ -24381,7 +23705,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B213" t="s">
         <v>68</v>
@@ -24407,7 +23731,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B214" t="s">
         <v>68</v>
@@ -24433,7 +23757,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B215" t="s">
         <v>68</v>
@@ -24459,7 +23783,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B216" t="s">
         <v>68</v>
@@ -24485,7 +23809,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B217" t="s">
         <v>68</v>
@@ -24511,7 +23835,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B218" t="s">
         <v>68</v>
@@ -24537,7 +23861,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B219" t="s">
         <v>69</v>
@@ -24563,7 +23887,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B220" t="s">
         <v>69</v>
@@ -24589,7 +23913,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B221" t="s">
         <v>69</v>
@@ -24621,7 +23945,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B222" t="s">
         <v>69</v>
@@ -24653,7 +23977,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B223" t="s">
         <v>69</v>
@@ -24685,7 +24009,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B224" t="s">
         <v>69</v>
@@ -24717,7 +24041,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B225" t="s">
         <v>69</v>
@@ -24749,7 +24073,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B226" t="s">
         <v>69</v>
@@ -24781,7 +24105,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B227" t="s">
         <v>69</v>
@@ -24813,7 +24137,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B228" t="s">
         <v>69</v>
@@ -24845,7 +24169,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B229" t="s">
         <v>69</v>
@@ -24871,7 +24195,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B230" t="s">
         <v>69</v>
@@ -24903,7 +24227,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B231" t="s">
         <v>69</v>
@@ -24929,7 +24253,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B232" t="s">
         <v>69</v>
@@ -24961,7 +24285,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B233" t="s">
         <v>69</v>
@@ -24993,7 +24317,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B234" t="s">
         <v>69</v>
@@ -25025,7 +24349,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B235" t="s">
         <v>69</v>
@@ -25057,7 +24381,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B236" t="s">
         <v>69</v>
@@ -25083,7 +24407,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B237" t="s">
         <v>69</v>
@@ -25115,7 +24439,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B238" t="s">
         <v>69</v>
@@ -25147,7 +24471,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B239" t="s">
         <v>69</v>
@@ -25179,7 +24503,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B240" t="s">
         <v>69</v>
@@ -25211,7 +24535,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B241" t="s">
         <v>69</v>
@@ -25243,7 +24567,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B242" t="s">
         <v>69</v>
@@ -25275,7 +24599,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B243" t="s">
         <v>69</v>
@@ -25307,7 +24631,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B244" t="s">
         <v>69</v>
@@ -25339,7 +24663,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B245" t="s">
         <v>70</v>
@@ -25350,7 +24674,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B246" t="s">
         <v>70</v>
@@ -25376,7 +24700,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B247" t="s">
         <v>70</v>
@@ -25402,7 +24726,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B248" t="s">
         <v>70</v>
@@ -25428,7 +24752,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B249" t="s">
         <v>70</v>
@@ -25454,7 +24778,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B250" t="s">
         <v>70</v>
@@ -25480,7 +24804,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B251" t="s">
         <v>70</v>
@@ -25506,7 +24830,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B252" t="s">
         <v>70</v>
@@ -25532,7 +24856,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B253" t="s">
         <v>70</v>
@@ -25558,7 +24882,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B254" t="s">
         <v>70</v>
@@ -25569,7 +24893,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B255" t="s">
         <v>70</v>
@@ -25595,7 +24919,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B256" t="s">
         <v>70</v>
@@ -25606,7 +24930,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B257" t="s">
         <v>70</v>
@@ -25632,7 +24956,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B258" t="s">
         <v>70</v>
@@ -25658,7 +24982,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B259" t="s">
         <v>70</v>
@@ -25684,7 +25008,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B260" t="s">
         <v>70</v>
@@ -25710,7 +25034,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B261" t="s">
         <v>70</v>
@@ -25721,7 +25045,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B262" t="s">
         <v>70</v>
@@ -25747,7 +25071,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B263" t="s">
         <v>70</v>
@@ -25773,7 +25097,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B264" t="s">
         <v>70</v>
@@ -25799,7 +25123,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B265" t="s">
         <v>70</v>
@@ -25825,7 +25149,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B266" t="s">
         <v>70</v>
@@ -25851,7 +25175,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B267" t="s">
         <v>70</v>
@@ -25877,7 +25201,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B268" t="s">
         <v>70</v>
@@ -25903,7 +25227,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B269" t="s">
         <v>70</v>
@@ -25929,7 +25253,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B270" t="s">
         <v>71</v>
@@ -25955,7 +25279,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" t="s">
         <v>71</v>
@@ -25981,7 +25305,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B272" t="s">
         <v>71</v>
@@ -26007,7 +25331,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B273" t="s">
         <v>71</v>
@@ -26033,7 +25357,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B274" t="s">
         <v>71</v>
@@ -26059,7 +25383,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B275" t="s">
         <v>71</v>
@@ -26085,7 +25409,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B276" t="s">
         <v>71</v>
@@ -26111,7 +25435,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B277" t="s">
         <v>71</v>
@@ -26137,7 +25461,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B278" t="s">
         <v>71</v>
@@ -26148,7 +25472,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B279" t="s">
         <v>71</v>
@@ -26174,7 +25498,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B280" t="s">
         <v>71</v>
@@ -26185,7 +25509,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B281" t="s">
         <v>71</v>
@@ -26211,7 +25535,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B282" t="s">
         <v>71</v>
@@ -26237,7 +25561,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B283" t="s">
         <v>71</v>
@@ -26263,7 +25587,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B284" t="s">
         <v>71</v>
@@ -26289,7 +25613,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B285" t="s">
         <v>71</v>
@@ -26300,7 +25624,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B286" t="s">
         <v>71</v>
@@ -26326,7 +25650,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B287" t="s">
         <v>71</v>
@@ -26352,7 +25676,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B288" t="s">
         <v>71</v>
@@ -26378,7 +25702,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B289" t="s">
         <v>71</v>
@@ -26404,7 +25728,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B290" t="s">
         <v>71</v>
@@ -26430,7 +25754,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B291" t="s">
         <v>71</v>
@@ -26456,7 +25780,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B292" t="s">
         <v>71</v>
@@ -26482,7 +25806,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B293" t="s">
         <v>71</v>
@@ -26508,7 +25832,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B294" t="s">
         <v>72</v>
@@ -26540,7 +25864,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B295" t="s">
         <v>72</v>
@@ -26572,7 +25896,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B296" t="s">
         <v>72</v>
@@ -26604,7 +25928,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B297" t="s">
         <v>72</v>
@@ -26636,7 +25960,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B298" t="s">
         <v>72</v>
@@ -26668,7 +25992,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B299" t="s">
         <v>72</v>
@@ -26700,7 +26024,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B300" t="s">
         <v>72</v>
@@ -26732,7 +26056,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B301" t="s">
         <v>72</v>
@@ -26758,7 +26082,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B302" t="s">
         <v>72</v>
@@ -26790,7 +26114,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B303" t="s">
         <v>72</v>
@@ -26816,7 +26140,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B304" t="s">
         <v>72</v>
@@ -26848,7 +26172,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B305" t="s">
         <v>72</v>
@@ -26880,7 +26204,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B306" t="s">
         <v>72</v>
@@ -26912,7 +26236,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B307" t="s">
         <v>72</v>
@@ -26944,7 +26268,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B308" t="s">
         <v>72</v>
@@ -26970,7 +26294,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B309" t="s">
         <v>72</v>
@@ -27002,7 +26326,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B310" t="s">
         <v>72</v>
@@ -27034,7 +26358,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B311" t="s">
         <v>72</v>
@@ -27066,7 +26390,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B312" t="s">
         <v>72</v>
@@ -27098,7 +26422,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B313" t="s">
         <v>72</v>
@@ -27130,7 +26454,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B314" t="s">
         <v>72</v>
@@ -27162,7 +26486,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B315" t="s">
         <v>72</v>
@@ -27194,7 +26518,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B316" t="s">
         <v>72</v>
@@ -27226,7 +26550,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B317" t="s">
         <v>73</v>
@@ -27258,7 +26582,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B318" t="s">
         <v>73</v>
@@ -27290,7 +26614,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B319" t="s">
         <v>73</v>
@@ -27322,7 +26646,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B320" t="s">
         <v>73</v>
@@ -27354,7 +26678,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B321" t="s">
         <v>73</v>
@@ -27386,7 +26710,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B322" t="s">
         <v>73</v>
@@ -27418,7 +26742,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B323" t="s">
         <v>73</v>
@@ -27444,7 +26768,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B324" t="s">
         <v>73</v>
@@ -27476,7 +26800,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B325" t="s">
         <v>73</v>
@@ -27502,7 +26826,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" t="s">
         <v>73</v>
@@ -27534,7 +26858,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B327" t="s">
         <v>73</v>
@@ -27566,7 +26890,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B328" t="s">
         <v>73</v>
@@ -27598,7 +26922,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B329" t="s">
         <v>73</v>
@@ -27630,7 +26954,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B330" t="s">
         <v>73</v>
@@ -27656,7 +26980,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B331" t="s">
         <v>73</v>
@@ -27688,7 +27012,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B332" t="s">
         <v>73</v>
@@ -27720,7 +27044,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B333" t="s">
         <v>73</v>
@@ -27752,7 +27076,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B334" t="s">
         <v>73</v>
@@ -27784,7 +27108,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B335" t="s">
         <v>73</v>
@@ -27816,7 +27140,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B336" t="s">
         <v>73</v>
@@ -27848,7 +27172,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B337" t="s">
         <v>73</v>
@@ -27880,7 +27204,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B338" t="s">
         <v>73</v>
@@ -27912,7 +27236,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B339" t="s">
         <v>74</v>
@@ -27944,7 +27268,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B340" t="s">
         <v>74</v>
@@ -27976,7 +27300,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B341" t="s">
         <v>74</v>
@@ -28008,7 +27332,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B342" t="s">
         <v>74</v>
@@ -28040,7 +27364,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B343" t="s">
         <v>74</v>
@@ -28072,7 +27396,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B344" t="s">
         <v>74</v>
@@ -28098,7 +27422,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B345" t="s">
         <v>74</v>
@@ -28130,7 +27454,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B346" t="s">
         <v>74</v>
@@ -28156,7 +27480,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B347" t="s">
         <v>74</v>
@@ -28188,7 +27512,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B348" t="s">
         <v>74</v>
@@ -28220,7 +27544,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B349" t="s">
         <v>74</v>
@@ -28252,7 +27576,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B350" t="s">
         <v>74</v>
@@ -28284,7 +27608,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B351" t="s">
         <v>74</v>
@@ -28310,7 +27634,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B352" t="s">
         <v>74</v>
@@ -28342,7 +27666,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B353" t="s">
         <v>74</v>
@@ -28374,7 +27698,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B354" t="s">
         <v>74</v>
@@ -28406,7 +27730,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B355" t="s">
         <v>74</v>
@@ -28438,7 +27762,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B356" t="s">
         <v>74</v>
@@ -28470,7 +27794,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B357" t="s">
         <v>74</v>
@@ -28502,7 +27826,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B358" t="s">
         <v>74</v>
@@ -28534,7 +27858,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B359" t="s">
         <v>74</v>
@@ -28566,7 +27890,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B360" t="s">
         <v>75</v>
@@ -28598,7 +27922,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B361" t="s">
         <v>75</v>
@@ -28630,7 +27954,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B362" t="s">
         <v>75</v>
@@ -28662,7 +27986,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B363" t="s">
         <v>75</v>
@@ -28694,7 +28018,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B364" t="s">
         <v>75</v>
@@ -28720,7 +28044,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B365" t="s">
         <v>75</v>
@@ -28752,7 +28076,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B366" t="s">
         <v>75</v>
@@ -28778,7 +28102,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B367" t="s">
         <v>75</v>
@@ -28810,7 +28134,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B368" t="s">
         <v>75</v>
@@ -28842,7 +28166,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B369" t="s">
         <v>75</v>
@@ -28874,7 +28198,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B370" t="s">
         <v>75</v>
@@ -28906,7 +28230,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B371" t="s">
         <v>75</v>
@@ -28932,7 +28256,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B372" t="s">
         <v>75</v>
@@ -28964,7 +28288,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B373" t="s">
         <v>75</v>
@@ -28996,7 +28320,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B374" t="s">
         <v>75</v>
@@ -29028,7 +28352,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B375" t="s">
         <v>75</v>
@@ -29060,7 +28384,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B376" t="s">
         <v>75</v>
@@ -29092,7 +28416,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B377" t="s">
         <v>75</v>
@@ -29124,7 +28448,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B378" t="s">
         <v>75</v>
@@ -29156,7 +28480,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B379" t="s">
         <v>75</v>
@@ -29188,7 +28512,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B380" t="s">
         <v>76</v>
@@ -29220,7 +28544,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B381" t="s">
         <v>76</v>
@@ -29252,7 +28576,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B382" t="s">
         <v>76</v>
@@ -29284,7 +28608,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B383" t="s">
         <v>76</v>
@@ -29310,7 +28634,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" t="s">
         <v>76</v>
@@ -29342,7 +28666,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B385" t="s">
         <v>76</v>
@@ -29368,7 +28692,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B386" t="s">
         <v>76</v>
@@ -29400,7 +28724,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B387" t="s">
         <v>76</v>
@@ -29432,7 +28756,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B388" t="s">
         <v>76</v>
@@ -29464,7 +28788,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B389" t="s">
         <v>76</v>
@@ -29496,7 +28820,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B390" t="s">
         <v>76</v>
@@ -29522,7 +28846,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B391" t="s">
         <v>76</v>
@@ -29554,7 +28878,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B392" t="s">
         <v>76</v>
@@ -29586,7 +28910,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B393" t="s">
         <v>76</v>
@@ -29618,7 +28942,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B394" t="s">
         <v>76</v>
@@ -29650,7 +28974,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B395" t="s">
         <v>76</v>
@@ -29682,7 +29006,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B396" t="s">
         <v>76</v>
@@ -29714,7 +29038,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B397" t="s">
         <v>76</v>
@@ -29746,7 +29070,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B398" t="s">
         <v>76</v>
@@ -29778,7 +29102,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B399" t="s">
         <v>77</v>
@@ -29810,7 +29134,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B400" t="s">
         <v>77</v>
@@ -29842,7 +29166,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B401" t="s">
         <v>77</v>
@@ -29868,7 +29192,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B402" t="s">
         <v>77</v>
@@ -29900,7 +29224,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B403" t="s">
         <v>77</v>
@@ -29926,7 +29250,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B404" t="s">
         <v>77</v>
@@ -29958,7 +29282,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B405" t="s">
         <v>77</v>
@@ -29990,7 +29314,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B406" t="s">
         <v>77</v>
@@ -30022,7 +29346,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B407" t="s">
         <v>77</v>
@@ -30054,7 +29378,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B408" t="s">
         <v>77</v>
@@ -30080,7 +29404,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B409" t="s">
         <v>77</v>
@@ -30112,7 +29436,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B410" t="s">
         <v>77</v>
@@ -30144,7 +29468,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B411" t="s">
         <v>77</v>
@@ -30176,7 +29500,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B412" t="s">
         <v>77</v>
@@ -30208,7 +29532,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B413" t="s">
         <v>77</v>
@@ -30240,7 +29564,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B414" t="s">
         <v>77</v>
@@ -30272,7 +29596,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B415" t="s">
         <v>77</v>
@@ -30304,7 +29628,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B416" t="s">
         <v>77</v>
@@ -30336,7 +29660,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B417" t="s">
         <v>78</v>
@@ -30368,7 +29692,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B418" t="s">
         <v>78</v>
@@ -30394,7 +29718,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B419" t="s">
         <v>78</v>
@@ -30426,7 +29750,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B420" t="s">
         <v>78</v>
@@ -30452,7 +29776,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B421" t="s">
         <v>78</v>
@@ -30484,7 +29808,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B422" t="s">
         <v>78</v>
@@ -30516,7 +29840,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B423" t="s">
         <v>78</v>
@@ -30548,7 +29872,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B424" t="s">
         <v>78</v>
@@ -30580,7 +29904,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B425" t="s">
         <v>78</v>
@@ -30606,7 +29930,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B426" t="s">
         <v>78</v>
@@ -30638,7 +29962,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B427" t="s">
         <v>78</v>
@@ -30670,7 +29994,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B428" t="s">
         <v>78</v>
@@ -30702,7 +30026,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B429" t="s">
         <v>78</v>
@@ -30734,7 +30058,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B430" t="s">
         <v>78</v>
@@ -30766,7 +30090,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B431" t="s">
         <v>78</v>
@@ -30798,7 +30122,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B432" t="s">
         <v>78</v>
@@ -30830,7 +30154,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B433" t="s">
         <v>78</v>
@@ -30862,7 +30186,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" t="s">
         <v>79</v>
@@ -30888,7 +30212,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B435" t="s">
         <v>79</v>
@@ -30920,7 +30244,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B436" t="s">
         <v>79</v>
@@ -30946,7 +30270,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B437" t="s">
         <v>79</v>
@@ -30978,7 +30302,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B438" t="s">
         <v>79</v>
@@ -31010,7 +30334,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B439" t="s">
         <v>79</v>
@@ -31042,7 +30366,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B440" t="s">
         <v>79</v>
@@ -31074,7 +30398,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B441" t="s">
         <v>79</v>
@@ -31100,7 +30424,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B442" t="s">
         <v>79</v>
@@ -31132,7 +30456,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B443" t="s">
         <v>79</v>
@@ -31164,7 +30488,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B444" t="s">
         <v>79</v>
@@ -31196,7 +30520,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B445" t="s">
         <v>79</v>
@@ -31228,7 +30552,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B446" t="s">
         <v>79</v>
@@ -31260,7 +30584,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B447" t="s">
         <v>79</v>
@@ -31292,7 +30616,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B448" t="s">
         <v>79</v>
@@ -31324,7 +30648,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B449" t="s">
         <v>79</v>
@@ -31356,7 +30680,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B450" t="s">
         <v>80</v>
@@ -31382,7 +30706,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B451" t="s">
         <v>80</v>
@@ -31393,7 +30717,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B452" t="s">
         <v>80</v>
@@ -31419,7 +30743,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B453" t="s">
         <v>80</v>
@@ -31445,7 +30769,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B454" t="s">
         <v>80</v>
@@ -31471,7 +30795,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B455" t="s">
         <v>80</v>
@@ -31497,7 +30821,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B456" t="s">
         <v>80</v>
@@ -31508,7 +30832,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B457" t="s">
         <v>80</v>
@@ -31534,7 +30858,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B458" t="s">
         <v>80</v>
@@ -31560,7 +30884,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B459" t="s">
         <v>80</v>
@@ -31586,7 +30910,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B460" t="s">
         <v>80</v>
@@ -31612,7 +30936,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B461" t="s">
         <v>80</v>
@@ -31638,7 +30962,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B462" t="s">
         <v>80</v>
@@ -31664,7 +30988,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B463" t="s">
         <v>80</v>
@@ -31690,7 +31014,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B464" t="s">
         <v>80</v>
@@ -31716,7 +31040,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B465" t="s">
         <v>81</v>
@@ -31742,7 +31066,7 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B466" t="s">
         <v>81</v>
@@ -31774,7 +31098,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B467" t="s">
         <v>81</v>
@@ -31806,7 +31130,7 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B468" t="s">
         <v>81</v>
@@ -31838,7 +31162,7 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B469" t="s">
         <v>81</v>
@@ -31870,7 +31194,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B470" t="s">
         <v>81</v>
@@ -31896,7 +31220,7 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B471" t="s">
         <v>81</v>
@@ -31928,7 +31252,7 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B472" t="s">
         <v>81</v>
@@ -31960,7 +31284,7 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B473" t="s">
         <v>81</v>
@@ -31992,7 +31316,7 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B474" t="s">
         <v>81</v>
@@ -32024,7 +31348,7 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B475" t="s">
         <v>81</v>
@@ -32056,7 +31380,7 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B476" t="s">
         <v>81</v>
@@ -32088,7 +31412,7 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B477" t="s">
         <v>81</v>
@@ -32120,7 +31444,7 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B478" t="s">
         <v>81</v>
@@ -32152,7 +31476,7 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B479" t="s">
         <v>82</v>
@@ -32178,7 +31502,7 @@
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B480" t="s">
         <v>82</v>
@@ -32204,7 +31528,7 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B481" t="s">
         <v>82</v>
@@ -32230,7 +31554,7 @@
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B482" t="s">
         <v>82</v>
@@ -32256,7 +31580,7 @@
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B483" t="s">
         <v>82</v>
@@ -32267,7 +31591,7 @@
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B484" t="s">
         <v>82</v>
@@ -32293,7 +31617,7 @@
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B485" t="s">
         <v>82</v>
@@ -32319,7 +31643,7 @@
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B486" t="s">
         <v>82</v>
@@ -32345,7 +31669,7 @@
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B487" t="s">
         <v>82</v>
@@ -32371,7 +31695,7 @@
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B488" t="s">
         <v>82</v>
@@ -32397,7 +31721,7 @@
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B489" t="s">
         <v>82</v>
@@ -32423,7 +31747,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B490" t="s">
         <v>82</v>
@@ -32449,7 +31773,7 @@
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B491" t="s">
         <v>82</v>
@@ -32475,7 +31799,7 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B492" t="s">
         <v>83</v>
@@ -32507,7 +31831,7 @@
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B493" t="s">
         <v>83</v>
@@ -32539,7 +31863,7 @@
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B494" t="s">
         <v>83</v>
@@ -32571,7 +31895,7 @@
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B495" t="s">
         <v>83</v>
@@ -32597,7 +31921,7 @@
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B496" t="s">
         <v>83</v>
@@ -32629,7 +31953,7 @@
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B497" t="s">
         <v>83</v>
@@ -32661,7 +31985,7 @@
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B498" t="s">
         <v>83</v>
@@ -32693,7 +32017,7 @@
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B499" t="s">
         <v>83</v>
@@ -32725,7 +32049,7 @@
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B500" t="s">
         <v>83</v>
@@ -32757,7 +32081,7 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B501" t="s">
         <v>83</v>
@@ -32789,7 +32113,7 @@
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B502" t="s">
         <v>83</v>
@@ -32821,7 +32145,7 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B503" t="s">
         <v>83</v>
@@ -32853,7 +32177,7 @@
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B504" t="s">
         <v>84</v>
@@ -32885,7 +32209,7 @@
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B505" t="s">
         <v>84</v>
@@ -32917,7 +32241,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B506" t="s">
         <v>84</v>
@@ -32943,7 +32267,7 @@
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B507" t="s">
         <v>84</v>
@@ -32975,7 +32299,7 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B508" t="s">
         <v>84</v>
@@ -33007,7 +32331,7 @@
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B509" t="s">
         <v>84</v>
@@ -33039,7 +32363,7 @@
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B510" t="s">
         <v>84</v>
@@ -33071,7 +32395,7 @@
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B511" t="s">
         <v>84</v>
@@ -33103,7 +32427,7 @@
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B512" t="s">
         <v>84</v>
@@ -33135,7 +32459,7 @@
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B513" t="s">
         <v>84</v>
@@ -33167,7 +32491,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B514" t="s">
         <v>84</v>
@@ -33199,7 +32523,7 @@
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B515" t="s">
         <v>85</v>
@@ -33231,7 +32555,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B516" t="s">
         <v>85</v>
@@ -33257,7 +32581,7 @@
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B517" t="s">
         <v>85</v>
@@ -33289,7 +32613,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B518" t="s">
         <v>85</v>
@@ -33321,7 +32645,7 @@
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B519" t="s">
         <v>85</v>
@@ -33353,7 +32677,7 @@
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B520" t="s">
         <v>85</v>
@@ -33385,7 +32709,7 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B521" t="s">
         <v>85</v>
@@ -33417,7 +32741,7 @@
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B522" t="s">
         <v>85</v>
@@ -33449,7 +32773,7 @@
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B523" t="s">
         <v>85</v>
@@ -33481,7 +32805,7 @@
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B524" t="s">
         <v>85</v>
@@ -33513,7 +32837,7 @@
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B525" t="s">
         <v>86</v>
@@ -33539,7 +32863,7 @@
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B526" t="s">
         <v>86</v>
@@ -33571,7 +32895,7 @@
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B527" t="s">
         <v>86</v>
@@ -33603,7 +32927,7 @@
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B528" t="s">
         <v>86</v>
@@ -33635,7 +32959,7 @@
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B529" t="s">
         <v>86</v>
@@ -33667,7 +32991,7 @@
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B530" t="s">
         <v>86</v>
@@ -33699,7 +33023,7 @@
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B531" t="s">
         <v>86</v>
@@ -33731,7 +33055,7 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B532" t="s">
         <v>86</v>
@@ -33763,7 +33087,7 @@
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B533" t="s">
         <v>86</v>
@@ -33795,7 +33119,7 @@
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B534" t="s">
         <v>87</v>
@@ -33821,7 +33145,7 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B535" t="s">
         <v>87</v>
@@ -33847,7 +33171,7 @@
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B536" t="s">
         <v>87</v>
@@ -33873,7 +33197,7 @@
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B537" t="s">
         <v>87</v>
@@ -33899,7 +33223,7 @@
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B538" t="s">
         <v>87</v>
@@ -33925,7 +33249,7 @@
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B539" t="s">
         <v>87</v>
@@ -33951,7 +33275,7 @@
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B540" t="s">
         <v>87</v>
@@ -33977,7 +33301,7 @@
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B541" t="s">
         <v>87</v>
@@ -34003,7 +33327,7 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B542" t="s">
         <v>88</v>
@@ -34035,7 +33359,7 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B543" t="s">
         <v>88</v>
@@ -34067,7 +33391,7 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B544" t="s">
         <v>88</v>
@@ -34099,7 +33423,7 @@
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B545" t="s">
         <v>88</v>
@@ -34131,7 +33455,7 @@
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B546" t="s">
         <v>88</v>
@@ -34163,7 +33487,7 @@
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B547" t="s">
         <v>88</v>
@@ -34195,7 +33519,7 @@
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B548" t="s">
         <v>88</v>
@@ -34227,7 +33551,7 @@
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B549" t="s">
         <v>89</v>
@@ -34259,7 +33583,7 @@
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B550" t="s">
         <v>89</v>
@@ -34291,7 +33615,7 @@
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B551" t="s">
         <v>89</v>
@@ -34323,7 +33647,7 @@
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B552" t="s">
         <v>89</v>
@@ -34355,7 +33679,7 @@
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B553" t="s">
         <v>89</v>
@@ -34387,7 +33711,7 @@
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B554" t="s">
         <v>89</v>
@@ -34419,7 +33743,7 @@
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B555" t="s">
         <v>90</v>
@@ -34451,7 +33775,7 @@
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B556" t="s">
         <v>90</v>
@@ -34483,7 +33807,7 @@
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B557" t="s">
         <v>90</v>
@@ -34515,7 +33839,7 @@
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B558" t="s">
         <v>90</v>
@@ -34547,7 +33871,7 @@
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B559" t="s">
         <v>90</v>
@@ -34579,7 +33903,7 @@
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B560" t="s">
         <v>91</v>
@@ -34611,7 +33935,7 @@
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B561" t="s">
         <v>91</v>
@@ -34643,7 +33967,7 @@
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B562" t="s">
         <v>91</v>
@@ -34675,7 +33999,7 @@
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B563" t="s">
         <v>91</v>
@@ -34707,7 +34031,7 @@
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B564" t="s">
         <v>92</v>
@@ -34739,7 +34063,7 @@
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B565" t="s">
         <v>92</v>
@@ -34771,7 +34095,7 @@
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B566" t="s">
         <v>92</v>
@@ -34803,7 +34127,7 @@
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B567" t="s">
         <v>93</v>
@@ -34835,7 +34159,7 @@
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B568" t="s">
         <v>93</v>
@@ -34867,7 +34191,7 @@
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B569" t="s">
         <v>94</v>
@@ -34896,196 +34220,6 @@
       <c r="J569">
         <v>0.36774147685899738</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
-  <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="8" customWidth="1"/>
-    <col min="12" max="13" width="15.77734375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="8" customWidth="1"/>
-    <col min="15" max="18" width="8" style="8" customWidth="1"/>
-    <col min="19" max="25" width="8.88671875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
-        <v>870</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
